--- a/src/main/resources/caseconf/JobPut/Case_JobPut.xlsx
+++ b/src/main/resources/caseconf/JobPut/Case_JobPut.xlsx
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -205,15 +205,6 @@
   </si>
   <si>
     <t>selSQL2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -277,14 +268,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-  </si>
-  <si>
     <t>JobPut-001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -359,15 +342,6 @@
   </si>
   <si>
     <t>JobPut-027</t>
-  </si>
-  <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -951,38 +925,28 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d4924c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59")</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>000113,IT,test,test,beijing,010-9999111,12345@123.com,3000.30</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
+    <t>000113,IT,test,test,beijing,010-9999111,12345@123.com,3000.30</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
+insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d49(user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) 24c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
 delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
 delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
 delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
 delete from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from user_request_serial where tenant_id = 1001;
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_request_serial where tenant_id = 1001;
-delete from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,IT,test,test,beijing,010-9999111,12345@123.com,3000.30</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1589,9 +1553,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
@@ -1671,10 +1635,10 @@
         <v>17</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="372.5" customHeight="1">
@@ -1682,82 +1646,82 @@
         <v>13</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="19" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J2" s="46"/>
       <c r="K2" s="47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L2" s="46"/>
       <c r="M2" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="S2" s="48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="144" customHeight="1">
+    </row>
+    <row r="3" spans="1:19" ht="305.5" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="19" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="48" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="110.5" customHeight="1">
@@ -1765,27 +1729,27 @@
         <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M4" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N4" s="35"/>
       <c r="O4" s="40"/>
@@ -1795,27 +1759,27 @@
         <v>13</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="48" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N5" s="34"/>
       <c r="O5" s="41"/>
@@ -1827,27 +1791,27 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="48" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M6" s="48" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="41"/>
@@ -1857,68 +1821,68 @@
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="48" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M7" s="48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="41"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="138" customHeight="1">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="281.5" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="19" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="47" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L8" s="46"/>
       <c r="M8" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N8" s="49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O8" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -1926,38 +1890,38 @@
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="H9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J9" s="46"/>
       <c r="K9" s="47" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="L9" s="46"/>
       <c r="M9" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="11" customFormat="1" ht="127.5" customHeight="1">
@@ -1965,38 +1929,38 @@
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J10" s="46"/>
       <c r="K10" s="47" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L10" s="46"/>
       <c r="M10" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="O10" s="48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="11" customFormat="1" ht="289" customHeight="1">
@@ -2004,38 +1968,38 @@
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J11" s="46"/>
       <c r="K11" s="47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="L11" s="46"/>
       <c r="M11" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O11" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2043,38 +2007,38 @@
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J12" s="46"/>
       <c r="K12" s="47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L12" s="46"/>
       <c r="M12" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2082,38 +2046,38 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J13" s="46"/>
       <c r="K13" s="47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L13" s="46"/>
       <c r="M13" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2121,38 +2085,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J14" s="46"/>
       <c r="K14" s="47" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="L14" s="46"/>
       <c r="M14" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2160,38 +2124,38 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J15" s="46"/>
       <c r="K15" s="47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L15" s="46"/>
       <c r="M15" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N15" s="49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="11" customFormat="1" ht="409.5">
@@ -2199,38 +2163,38 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J16" s="46"/>
       <c r="K16" s="47" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L16" s="46"/>
       <c r="M16" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="11" customFormat="1" ht="97.5" customHeight="1">
@@ -2238,38 +2202,38 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C17" s="48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J17" s="46"/>
       <c r="K17" s="47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="L17" s="46"/>
       <c r="M17" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N17" s="49" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O17" s="48" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="11" customFormat="1" ht="409.5">
@@ -2277,38 +2241,38 @@
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J18" s="46"/>
       <c r="K18" s="47" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L18" s="46"/>
       <c r="M18" s="47" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N18" s="49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1">
@@ -2316,38 +2280,38 @@
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J19" s="46"/>
       <c r="K19" s="47" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L19" s="46"/>
       <c r="M19" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N19" s="49" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="409.5">
@@ -2355,38 +2319,38 @@
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J20" s="46"/>
       <c r="K20" s="47" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L20" s="46"/>
       <c r="M20" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N20" s="49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O20" s="48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="409.5">
@@ -2394,38 +2358,38 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J21" s="46"/>
       <c r="K21" s="47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="L21" s="46"/>
       <c r="M21" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N21" s="49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O21" s="48" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="409.5">
@@ -2433,38 +2397,38 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J22" s="46"/>
       <c r="K22" s="47" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L22" s="46"/>
       <c r="M22" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N22" s="49" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="O22" s="48" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="409.5">
@@ -2472,38 +2436,38 @@
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="48" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J23" s="46"/>
       <c r="K23" s="47" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L23" s="46"/>
       <c r="M23" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N23" s="49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O23" s="48" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="409.5">
@@ -2511,38 +2475,38 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H24" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J24" s="46"/>
       <c r="K24" s="47" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="L24" s="46"/>
       <c r="M24" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N24" s="49" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O24" s="48" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="409.5">
@@ -2550,38 +2514,38 @@
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C25" s="48" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H25" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J25" s="46"/>
       <c r="K25" s="47" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L25" s="46"/>
       <c r="M25" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N25" s="49" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O25" s="48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="167" customHeight="1">
@@ -2589,37 +2553,37 @@
         <v>13</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="19" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H26" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="46" t="s">
         <v>35</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>36</v>
       </c>
       <c r="J26" s="5"/>
       <c r="K26" s="48" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N26" s="49" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O26" s="48" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="17.5">

--- a/src/main/resources/caseconf/JobPut/Case_JobPut.xlsx
+++ b/src/main/resources/caseconf/JobPut/Case_JobPut.xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjianjie/Documents/work/Git/Data_Center_Platform/src/main/resources/caseconf/JobPut/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15390" windowHeight="9230"/>
+    <workbookView xWindow="-9040" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="JobPut" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +35,7 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -69,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -114,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="131">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -190,22 +201,6 @@
   <si>
     <t>1级</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提交职业信息成功</t>
@@ -257,17 +252,6 @@
     <t>非必传参数-companyEmail为空</t>
   </si>
   <si>
-    <t>非必传参数-monthlySalary为空</t>
-  </si>
-  <si>
-    <t>https://user-center-thu.tunaikita.id/user/job</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>/put</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>JobPut-001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -308,12 +292,6 @@
     <t>JobPut-015</t>
   </si>
   <si>
-    <t>JobPut-016</t>
-  </si>
-  <si>
-    <t>JobPut-017</t>
-  </si>
-  <si>
     <t>JobPut-018</t>
   </si>
   <si>
@@ -339,25 +317,6 @@
   </si>
   <si>
     <t>JobPut-026</t>
-  </si>
-  <si>
-    <t>JobPut-027</t>
-  </si>
-  <si>
-    <t>{
- "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
-}</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -366,38 +325,6 @@
     "successful": 1
 }</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "fin",
- "occupation": "devp",
- "company": "wecash",
-  "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantId": "", 
- "tenantUserId": "1114",
- "industry": "IT",
- "occupation": "test",
- "company": "jingsuan",
- "job": "test",
- "companyCity": "shanghai", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
@@ -410,41 +337,10 @@
   </si>
   <si>
     <t>{
- "tenantId": "li", 
- "tenantUserId": "",
- "industry": "IT",
- "occupation": "test",
- "company": "jingsuan",
- "job": "test",
- "companyCity": "shanghai", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0001",
     "resMsg": "系统错误",
     "successful": 0,
     "data": "Validation failed for argument [0] in public java.lang.Object ***.web.controller.UserJobController.insertUserJob(***.web.request.UserJobReq): [Field error in object 'userJobReq' on field 'tenantUserId': rejected value []; codes [NotEmpty.userJobReq.tenantUserId,NotEmpty.tenantUserId,NotEmpty.java.lang.String,NotEmpty]; arguments [org.springframework.context.support.DefaultMessageSourceResolvable: codes [userJobReq.tenantUserId,tenantUserId]; arguments []; default message [tenantUserId]]; default message [渠道用户id不允许为空]] "
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "tenantUserId": "1114",
- "industry": "IT",
- "occupation": "test",
- "company": "jingsuan",
- "job": "test",
- "companyCity": "shanghai", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -459,21 +355,6 @@
   </si>
   <si>
     <t>{
- "tenantId": "li", 
- "industry": "IT",
- "occupation": "test",
- "company": "jingsuan",
- "job": "test",
- "companyCity": "shanghai", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
-}</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
     "resCode": "E0001",
     "resMsg": "系统错误",
     "successful": 0,
@@ -482,479 +363,1342 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>非必传参数-companyEmail缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-industry缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-company缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-job缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-companyCity缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-companyAddress缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-companyPhone缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-monthlySalary缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非必传参数-occupation缺失</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/user</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>/job/put</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
 }</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>chao'yang</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>select tenant_user_id,industry,occupation,job,company,company_city,company_address,company_phone,company_email,monthly_salary from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
+    <t xml:space="preserve">SELECT * FROM user_job WHERE tenant_id = "1001" and tenant_user_id = "111111";
+</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>000113,IT,test,test,shanyin,beijing,bj,010-9999111,12345@123.com</t>
+    <t>except_data_userjob</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-companyEmail缺失</t>
+    <t>sql_userjob</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-industry缺失</t>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into `seraph`.`user_basic_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `status`, `secret_key`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', '1', 'ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVickk4a2pqc2ZCYkFSRExBVmhwa0VQclNXQUhkVnAyVUdBQUFBQUFBQUFBQUNacURacno0T3pENzJtWVRsdUF3cjJKNjNMcDhoVXpENjhKSHo2UEpCODduM2RSczdYUnh2M2pYb2Q0LzR1OGVBOS9uWFRZNU1NYWpOTW9rOXlYbFM0blMyNVM1NFhibnJMMlo1aU1PYW1paGovQnhTNklnbEJvNWNtNUlxRzlLTzgzdXc5dmRiTm4xbE9Jdk9vUmlhQzMvMkcyTWJOZXJOVFl1WDdzZ2l4UWdLZnlHM3czb2oxMnFXR1JiQjBQQlFXZll4SUZDbE5NZkZBRW1OeG5McUNTSVV5dVg3YjI0RU4vVmFiMDhzY1lWRk83Q0kreXlRREJsVjV5NnVGOEt3MG83RjNYb1BvSWdDUzUxbVIvWXEyeSsrQzdCNW5ZMXBSSDhjSHZ0UVhkS3FuZlQ4SW1aeGNCcG1NdGRvQ2p2WWVzVjVFcmxyc3B1M21SSHAxbHJzSXpMbTk1a3FsSGE0QnozTTNhdFUzSFRwZmhoemV1eHRiNTRTSmJjUXQ3MFhVZjV1VklRQTZNY3VTVmVsejJ0YXd0SVZjck9BN2R1STBNRFdDV3V5MDNYUnp1TFFPczlhQS9QUHlwMTJBdlUyNnNHOWxlUnUwVlRUWXhzb3RHSC9VdkFlOE5ZaTkxUT0=', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'name', '王*', 'S1vS3hPCjrE=', 'ac28fbca8a573dacf8566df97ba36e89', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'mobileNo', '189****9090', 'ZjrvanU8xynmJOgqaepUtA==', '545a3ef0c83ca84b3e18cf85c7187d94', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'certNo', '1311**********0909', 'K6wr0kS9Qucy33B+h1v+9129YYhbcehY', 'bbff5c1bc79a9d858b441b8abf54d911', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'email', 'wang***@163.com', 'd8IyCJSIGb91nHFBm7G4aQ==', 'dce6158df0eb228b3148467232b1dcf6', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_index` ( `user_id`, `tenant_id`, `tenant_user_id`, `mobile_no`, `cert_no`, `mobile_no_cert_no`, `cert_no_mobile_no`, `cert_no_name`, `name_cert_no`, `mobile_no_name`, `name_mobile_no`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'dca7ac134311d1a7699db2f9d2189350', '9b0658065bae368092d0c75b029f73b2', '27aa7acffc1d7b896f1df246f4cac8fa', '3c2d65e816e5101af47ea06c00dc7750', '4f121e32315573d04be47f23b4c7236f', 'a07e4a85fd185bc8983462c533ecdabf', '0d3a23d2debb04c422a3f7e257dd85e6', 'ff8756693f7f89fdd3aa838c94bef790', '2020-05-15 16:14:06', '2020-05-15 16:14:06');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into `seraph`.`user_basic_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `status`, `secret_key`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', '1', 'ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVickk4a2pqc2ZCYkFSRExBVmhwa0VQclNXQUhkVnAyVUdBQUFBQUFBQUFBQUNacURacno0T3pENzJtWVRsdUF3cjJKNjNMcDhoVXpENjhKSHo2UEpCODduM2RSczdYUnh2M2pYb2Q0LzR1OGVBOS9uWFRZNU1NYWpOTW9rOXlYbFM0blMyNVM1NFhibnJMMlo1aU1PYW1paGovQnhTNklnbEJvNWNtNUlxRzlLTzgzdXc5dmRiTm4xbE9Jdk9vUmlhQzMvMkcyTWJOZXJOVFl1WDdzZ2l4UWdLZnlHM3czb2oxMnFXR1JiQjBQQlFXZll4SUZDbE5NZkZBRW1OeG5McUNTSVV5dVg3YjI0RU4vVmFiMDhzY1lWRk83Q0kreXlRREJsVjV5NnVGOEt3MG83RjNYb1BvSWdDUzUxbVIvWXEyeSsrQzdCNW5ZMXBSSDhjSHZ0UVhkS3FuZlQ4SW1aeGNCcG1NdGRvQ2p2WWVzVjVFcmxyc3B1M21SSHAxbHJzSXpMbTk1a3FsSGE0QnozTTNhdFUzSFRwZmhoemV1eHRiNTRTSmJjUXQ3MFhVZjV1VklRQTZNY3VTVmVsejJ0YXd0SVZjck9BN2R1STBNRFdDV3V5MDNYUnp1TFFPczlhQS9QUHlwMTJBdlUyNnNHOWxlUnUwVlRUWXhzb3RHSC9VdkFlOE5ZaTkxUT0=', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'name', '王*', 'S1vS3hPCjrE=', 'ac28fbca8a573dacf8566df97ba36e89', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'mobileNo', '189****9090', 'ZjrvanU8xynmJOgqaepUtA==', '545a3ef0c83ca84b3e18cf85c7187d94', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'certNo', '1311**********0909', 'K6wr0kS9Qucy33B+h1v+9129YYhbcehY', 'bbff5c1bc79a9d858b441b8abf54d911', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'email', 'wang***@163.com', 'd8IyCJSIGb91nHFBm7G4aQ==', 'dce6158df0eb228b3148467232b1dcf6', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_index` ( `user_id`, `tenant_id`, `tenant_user_id`, `mobile_no`, `cert_no`, `mobile_no_cert_no`, `cert_no_mobile_no`, `cert_no_name`, `name_cert_no`, `mobile_no_name`, `name_mobile_no`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'dca7ac134311d1a7699db2f9d2189350', '9b0658065bae368092d0c75b029f73b2', '27aa7acffc1d7b896f1df246f4cac8fa', '3c2d65e816e5101af47ea06c00dc7750', '4f121e32315573d04be47f23b4c7236f', 'a07e4a85fd185bc8983462c533ecdabf', '0d3a23d2debb04c422a3f7e257dd85e6', 'ff8756693f7f89fdd3aa838c94bef790', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_job` ( `user_id`, `tenant_id`, `tenant_user_id`, `industry`, `occupation`, `job`, `company`, `company_city`, `company_address`, `company_phone`, `company_email`, `monthly_salary`, `create_time`, `update_time`, `yn`) values ( '710887744879529984', '1001', '111111', '软件', '测试', '软件测试', '闪银', '北京', '朝阳', '006200002220079', 'wang@gmail.com', '40000000.00', '2020-04-17 13:52:38', '2020-04-17 13:52:38', '0');</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
+ "tenantUserId": "111111",
+ "industry": "行业",
+ "occupation": "职业",
+ "company": "公司",
+ "job": "工作",
+ "companyCity": "城市", 
+ "companyAddress": "地址",
+ "companyPhone": "006200002220091",
+ "companyEmail": "wangjian@gmail.com",
+ "monthlySalary": 10000.00
 }</t>
+    <rPh sb="65" eb="66">
+      <t>hang'ye</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>zhi'ye</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>cheng'shi</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>di'zhi</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-company缺失</t>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"行业",
+    "occupation":"职业",
+    "job":"工作",
+    "company":"公司",
+    "company_city":"城市",
+    "company_address":"地址",
+    "company_phone":"006200002220091",
+    "company_email":"wangjian@gmail.com",
+    "monthly_salary":"10000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
+}</t>
+    <rPh sb="73" eb="74">
+      <t>hang'ye</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>zhi'ye</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="157" eb="158">
+      <t>cheng'shi</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>di'zhi</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-job缺失</t>
+    <t>0级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/user</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-companyCity缺失</t>
+    <t>https://user-center-thu.tunaikita.id/user</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-companyAddress缺失</t>
+    <t>https://user-center-thu.tunaikita.id/user</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-companyPhone缺失</t>
+    <t>https://user-center-thu.tunaikita.id/user</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>非必传参数-monthlySalary缺失</t>
+    <t>https://user-center-thu.tunaikita.id/user</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://user-center-thu.tunaikita.id/user</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM user_info_item WHERE tenant_id = "1001" and tenant_user_id = "111111";
+DELETE FROM user_basic_info WHERE tenant_id = "1001" and tenant_user_id = "111111";
+DELETE FROM user_index WHERE tenant_id = "1001" and tenant_user_id = "111111";
+DELETE FROM user_job WHERE tenant_id = "1001" and tenant_user_id = "111111";</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>0级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "", 
+ "tenantUserId": "111111",
+ "industry": "行业",
+ "occupation": "职业",
+ "company": "公司",
+ "job": "工作",
+ "companyCity": "城市", 
+ "companyAddress": "地址",
+ "companyPhone": "006200002220091",
+ "companyEmail": "wangjian@gmail.com",
+ "monthlySalary": 10000.00
+}</t>
+    <rPh sb="61" eb="62">
+      <t>hang'ye</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>zhi'ye</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>cheng'shi</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.3
+ "tenantUserId": "",
+ "industry": "行业",
+ "occupation": "职业",
+ "company": "公司",
+ "job": "工作",
+ "companyCity": "城市", 
+ "companyAddress": "地址",
+ "companyPhone": "006200002220091",
+ "companyEmail": "wangjian@gmail.com",
+ "monthlySalary": 10000.00
+}</t>
+    <rPh sb="59" eb="60">
+      <t>hang'ye</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>zhi'ye</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>cheng'shi</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantUserId": "111111",
+ "industry": "行业",
+ "occupation": "职业",
+ "company": "公司",
+ "job": "工作",
+ "companyCity": "城市", 
+ "companyAddress": "地址",
+ "companyPhone": "006200002220091",
+ "companyEmail": "wangjian@gmail.com",
+ "monthlySalary": 10000.00
+}</t>
+    <rPh sb="43" eb="44">
+      <t>hang'ye</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>zhi'ye</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>cheng'shi</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001", 
+ "industry": "行业",
+ "occupation": "职业",
+ "company": "公司",
+ "job": "工作",
+ "companyCity": "城市", 
+ "companyAddress": "地址",
+ "companyPhone": "006200002220091",
+ "companyEmail": "wangjian@gmail.com",
+ "monthlySalary": 10000.00
+}</t>
+    <rPh sb="38" eb="39">
+      <t>hang'ye</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>zhi'ye</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="113" eb="114">
+      <t>cheng'shi</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE FROM user_info_item WHERE tenant_id = "1001" and tenant_user_id = "111111";
+DELETE FROM user_basic_info WHERE tenant_id = "1001" and tenant_user_id = "111111";
+DELETE FROM user_index WHERE tenant_id = "1001" and tenant_user_id = "111111";
+DELETE FROM user_job WHERE tenant_id = "1001" and tenant_user_id = "111111";</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001", 
+ "tenantUserId": "111111",
+ "industry": "",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="84" eb="85">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
- "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.3
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
 }</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>chao'yang</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>非必传参数-occupation缺失</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改职业信息-传参为空</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "",
- "occupation": "",
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
  "company": "",
-  "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>000113,IT,test,shanyin</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select create_time from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>exceptSQL3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>selSQL3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select update_time from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.2
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
 }</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>chao'yang</t>
+    </rPh>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>select tenant_user_id,industry,occupation,company,company_city,company_address,company_phone,company_email,monthly_salary from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,industry,occupation,job,company,company_city,company_phone,company_email,monthly_salary from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,industry,occupation  from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,industry,occupation,company from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,occupation,job,company,company_city,company_address,company_phone,company_email,monthly_salary from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
+}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.3
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>select tenant_user_id,industry,occupation,job,company,company_address,company_phone,company_email,monthly_salary from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.4
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bei'jing</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.4
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.5
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>000113,IT,test,shanyin,beijing,bj,010-9999111,12345@123.com,3000.30</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,IT,test,test,shanyin,beijing,bj,010-9999111,12345@123.com,3000.20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,fin,devp,wecash</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,test,test,shanyin,beijing,bj,010-9999111,12345@123.com,3000.20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,industry,job,company,company_city,company_address,company_phone,company_email,monthly_salary from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,IT,test,shanyin,beijing,bj,010-9999111,12345@123.com,3000.20</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,industry,occupation,job,company_city,company_phone,company_email,monthly_salary from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.3
+ "tenantUserId": "111111",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="67" eb="68">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":null,
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>000113,IT,test,test,shanyin,bj,010-9999111,12345@123.com,3000.40</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,IT,test,test,shanyin,beijing,010-9999111,12345@123.com,3000.40</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>select tenant_user_id,industry,occupation,job,company,company_city,company_address,company_email,monthly_salary from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,IT,test,test,shanyin,beijing,bj,12345@123.com,3000.50</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "",
- "monthlySalary": 3000.5
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com"
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":null,
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>select tenant_user_id,industry,occupation,job,company,company_city,company_address,company_phone,monthly_salary from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>000113,IT,test,test,shanyin,beijing,bj,010-9999111,3000.50</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": ""
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":null,
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>select tenant_user_id,industry,occupation,job,company,company_city,company_address,company_phone,company_email from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com"
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":null,
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "monthlySalary": 3000.5
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>bei'jing</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":null,
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyAddress": "bj",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.5
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":null,
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyCity": "beijing", 
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.4
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "company": "闪银",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="126" eb="127">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":null,
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>{
  "tenantId": "1001", 
- "tenantUserId": "000113",
- "industry": "IT",
- "occupation": "test",
- "company": "shanyin",
- "job": "test",
- "companyAddress": "bj",
- "companyPhone": "010-9999111",
- "companyEmail": "12345@123.com",
- "monthlySalary": 3000.4
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "occupation": "测试",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="124" eb="125">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":null,
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
 }</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>000113,IT,test,test,beijing,010-9999111,12345@123.com,3000.30</t>
+    <t>{
+ "tenantId": "1001", 
+ "tenantUserId": "111111",
+ "industry": "软件",
+ "company": "闪银",
+ "job": "软件测试",
+ "companyCity": "北京", 
+ "companyAddress": "朝阳",
+ "companyPhone": "006200002220079",
+ "companyEmail": "wang@gmail.com",
+ "monthlySalary": 1000.00
+}</t>
+    <rPh sb="65" eb="66">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>shan'yin</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":null,
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"1000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
+}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>000113,IT,test,test,beijing,010-9999111,12345@123.com,3000.30</t>
+    <t>用户不存在</t>
+    <rPh sb="0" eb="1">
+      <t>yong'hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu'cun'zai</t>
+    </rPh>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897131,"699222007535509504","1001","000113","name","李*","G+1kJ3G3qsg=","a4292d5e92be734194926548ec6e3cf6","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897133,"699222007535509504","1001","000113","mobileNo","155****6733","v39jSjKgwX/LlzVDHCxGcQ==","74108036c205aedb06337232d5a01f03","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897135,"699222007535509504","1001","000113","certNo","5412**********0000","8b2KMXrX5qlF0bata4s7JOSCRGd6Y5PV","d508ebd3c36b9297a99a7354e0ae4f74","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_info_item (id,user_id,tenant_id,tenant_user_id,key_name,key_value,value_en,value_md,version,create_time,update_time) values (1002897137,"699222007535509504","1001","000113","email","3234***@126.com","b1w/bCSdxM2sVm5O8y+eZg==","03065f0f961760adf3d79341ac1972e2","0","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_basic_info (user_id,tenant_id,tenant_user_id,status,secret_key,create_time,update_time) values ("699222007535509504","1001","000113",1,"ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTViNFRNSmN1ejJBMFpmQkJGK2k4MHIxR2g5TGQzdVZNek9BQUFBQUFBQUFBRDhmeHdvcHRObnJIRU5OelJYaVptMGtmdEdNZDhnRzZhbENxbmR6YmdZcHhYVjgzVW9rSzVuNlR2T1NISmxMc0I2VXVuSVI5MUhaZnZQR2psRmZVbFhINmhHQW16SkFscDRsclk1akp5aGlJOWNQSzk0dmVDNVBCazMrNFkvcnJKZmVQZ1FrSFdRdzN1aUJrS1ZjbFhnWGxueTVjTmh6ZmhiY0E1UGo4U1l3OXFiRnZLWldsWDBFOFk2cjRYRSsxRmI4SDVURlFqS3NabGFlMEJkRE92UDc4ZUczUFErc0NvUFpkWnlKWTcwVzVody9zd0ZvdzBaMktmQ0RTL1FhaFY2ZGc1UGZTYitjMFU3ZVYvZXN3NHlBdWVmWGxqRldnbXU2dWxyeUp0MS9sbjhRTUlzY3gvMWFDckRCOGY5U3IrWGRlYUZDcW5QZ1pvOGdPNytsUmpJdDVmYVhYS2I5aGFVZGVVUktMeEdMTTQ4VlJ1WGc1anhlUnQ2UnV3ZmYyNForaGtpYjFUbmRyajBsNlVwRCtuQXA2bGZiMk82UVlsMVJQaFYxK0ZHUFJncjQ2ZTR3TVFDSmpNaTdYNmxWMkNIZy9aSVRFOFhjaFNxQko5bDN5M284dzZqeEJwRnRXRT0=","2020-03-28 21:49:59","2020-03-28 21:49:59");
-insert into user_index (user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) values ("699222007535509504","1001","000113","9337473d97849183519161fea2bfd554","67b10fbf4bd7cd6871830cf7fe5ee581","37f23ec7e589c3d77d162ddaccb495f8","458fdf82207c3a7d063d49(user_id,tenant_id,tenant_user_id,mobile_no,cert_no,mobile_no_cert_no,cert_no_mobile_no,cert_no_name,name_cert_no,mobile_no_name,name_mobile_no,create_time,update_time) 24c2d310a2","233bcb92b24dbebd294b2eade430541d","6252a94479dbeb9c309a061962389948","c7ca10cbfddc6285810765c42cf91159","e5a3a77b29f86275295b31a1289e5400","2020-03-29 21:49:59","2020-03-29 21:49:59");</t>
+    <t>{
+ "tenantId": "10001", 
+ "tenantUserId": "999999",
+ "industry": "行业",
+ "occupation": "职业",
+ "company": "公司",
+ "job": "工作",
+ "companyCity": "城市", 
+ "companyAddress": "地址",
+ "companyPhone": "006200002220091",
+ "companyEmail": "wangjian@gmail.com",
+ "monthlySalary": 10000.00
+}</t>
+    <rPh sb="66" eb="67">
+      <t>hang'ye</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>zhi'ye</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>gong'si</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>gong'zuo</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>cheng'shi</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>di'zhi</t>
+    </rPh>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "resCode":"USR2002",
+    "resMsg":"用户不存在",
+    "successful":0
+}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-delete from user_basic_info where tenant_user_id =000113  and tenant_id = 1001;
-delete from user_info_item where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_index where tenant_user_id = 000113 and tenant_id = 1001;
-delete from user_job where tenant_user_id =000113  and tenant_id = 1001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>JobPut-007</t>
+  </si>
+  <si>
+    <t>JobPut-008</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,7 +1864,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1254,9 +1998,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1266,7 +2007,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1551,38 +2301,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S180"/>
+  <dimension ref="A1:P180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="8" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="8" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" style="8" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="7.9140625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="44.25" style="36" customWidth="1"/>
-    <col min="7" max="7" width="34.75" style="8" customWidth="1"/>
-    <col min="8" max="8" width="36.58203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="72" style="36" customWidth="1"/>
+    <col min="7" max="7" width="34.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="36.5" style="8" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="13" customWidth="1"/>
-    <col min="11" max="11" width="43.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="14.4140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="42.75" style="5" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="24.1640625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="47.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="42.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="55.6640625" style="36" customWidth="1"/>
     <col min="15" max="15" width="33.83203125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="17.9140625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="35" style="5" customWidth="1"/>
-    <col min="18" max="18" width="19.5" style="5" customWidth="1"/>
-    <col min="19" max="19" width="19.9140625" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="11" style="5"/>
+    <col min="16" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" customHeight="1">
+    <row r="1" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1623,970 +2371,922 @@
         <v>12</v>
       </c>
       <c r="N1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="372.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="372.5" customHeight="1">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="46"/>
-      <c r="K2" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="O2" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="305.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="50">
+        <v>1</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="S2" s="48" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="305.5" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="19" t="s">
-        <v>130</v>
-      </c>
       <c r="G3" s="19" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>35</v>
+        <v>78</v>
+      </c>
+      <c r="I3" s="45" t="s">
+        <v>66</v>
       </c>
       <c r="J3" s="5"/>
-      <c r="K3" s="48" t="s">
-        <v>63</v>
+      <c r="K3" s="46" t="s">
+        <v>74</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N3" s="49" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="O3" s="48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="110.5" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>66</v>
       </c>
       <c r="J4" s="5"/>
-      <c r="K4" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="48" t="s">
-        <v>65</v>
+      <c r="K4" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="M4" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="N4" s="35"/>
       <c r="O4" s="40"/>
     </row>
-    <row r="5" spans="1:19" ht="266">
+    <row r="5" spans="1:15" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="I5" s="45" t="s">
+        <v>66</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="K5" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-    </row>
-    <row r="6" spans="1:19" ht="252">
+      <c r="K5" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="35"/>
+      <c r="O5" s="40"/>
+    </row>
+    <row r="6" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>35</v>
+        <v>79</v>
+      </c>
+      <c r="I6" s="45" t="s">
+        <v>66</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="K6" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>69</v>
+      <c r="K6" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" s="47" t="s">
+        <v>53</v>
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="41"/>
     </row>
-    <row r="7" spans="1:19" ht="266">
+    <row r="7" spans="1:15" ht="270" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="46" t="s">
-        <v>35</v>
+        <v>65</v>
+      </c>
+      <c r="I7" s="45" t="s">
+        <v>66</v>
       </c>
       <c r="J7" s="5"/>
-      <c r="K7" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>71</v>
+      <c r="K7" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="41"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="281.5" customHeight="1">
+    <row r="8" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>129</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>131</v>
-      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="46"/>
-      <c r="K8" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="46"/>
+        <v>65</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="46" t="s">
+        <v>88</v>
+      </c>
       <c r="M8" s="47" t="s">
-        <v>62</v>
-      </c>
-      <c r="N8" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="O8" s="48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" ht="409.5">
+        <v>55</v>
+      </c>
+      <c r="N8" s="34"/>
+      <c r="O8" s="41"/>
+    </row>
+    <row r="9" spans="1:15" s="11" customFormat="1" ht="281.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="46"/>
-      <c r="M9" s="47" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="N9" s="49" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="O9" s="48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" ht="127.5" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J10" s="46"/>
-      <c r="K10" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I10" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="45"/>
+      <c r="K10" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="O10" s="48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="289" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="46"/>
-      <c r="M11" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="K11" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O11" s="48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="289" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="46"/>
-      <c r="K12" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="L12" s="46"/>
-      <c r="M12" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="46"/>
-      <c r="M13" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="45"/>
+      <c r="K13" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="L14" s="46"/>
-      <c r="M14" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="L15" s="46"/>
-      <c r="M15" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I15" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="45"/>
+      <c r="M15" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N15" s="49" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" s="46"/>
-      <c r="M16" s="47" t="s">
-        <v>20</v>
+        <v>80</v>
+      </c>
+      <c r="I16" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="45"/>
+      <c r="M16" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="97.5" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="48" t="s">
-        <v>76</v>
+        <v>42</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>57</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="46"/>
-      <c r="K17" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="L17" s="46"/>
-      <c r="M17" s="47" t="s">
-        <v>62</v>
+        <v>65</v>
+      </c>
+      <c r="I17" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="N17" s="49" t="s">
         <v>109</v>
       </c>
       <c r="O17" s="48" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="409.5">
+        <v>68</v>
+      </c>
+      <c r="P17" s="48"/>
+    </row>
+    <row r="18" spans="1:16" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>87</v>
+        <v>43</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>64</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47" t="s">
-        <v>62</v>
+        <v>81</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46" t="s">
+        <v>51</v>
       </c>
       <c r="N18" s="49" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="110" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="48" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>58</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N19" s="49" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="48" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>59</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J20" s="46"/>
-      <c r="K20" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="K20" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N20" s="49" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="O20" s="48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>60</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="46"/>
-      <c r="M21" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I21" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="45"/>
+      <c r="K21" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N21" s="49" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="O21" s="48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="48" t="s">
-        <v>81</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>61</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="46"/>
-      <c r="K22" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="L22" s="46"/>
-      <c r="M22" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J22" s="45"/>
+      <c r="K22" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N22" s="49" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O22" s="48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="48" t="s">
-        <v>82</v>
+        <v>48</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>62</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J23" s="46"/>
-      <c r="K23" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I23" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N23" s="49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O23" s="48" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>75</v>
+        <v>49</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>56</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47" t="s">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="45"/>
+      <c r="K24" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N24" s="49" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="O24" s="48" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="409.5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="409" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="48" t="s">
-        <v>83</v>
+        <v>50</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>63</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="J25" s="46"/>
-      <c r="K25" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47" t="s">
-        <v>20</v>
+        <v>82</v>
+      </c>
+      <c r="I25" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" s="45"/>
+      <c r="K25" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46" t="s">
+        <v>16</v>
       </c>
       <c r="N25" s="49" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="O25" s="48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="167" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>88</v>
-      </c>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="167" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="46" t="s">
-        <v>35</v>
-      </c>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="45"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="48" t="s">
-        <v>89</v>
-      </c>
-      <c r="M26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="O26" s="48" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="17.5">
+      <c r="K26" s="47"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="48"/>
+    </row>
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="19"/>
@@ -2601,7 +3301,7 @@
       <c r="L27" s="16"/>
       <c r="M27" s="18"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="28" spans="1:16" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="19"/>
@@ -2618,7 +3318,7 @@
       <c r="N28" s="37"/>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="29" spans="1:16" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="19"/>
@@ -2635,7 +3335,7 @@
       <c r="N29" s="37"/>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="30" spans="1:16" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="19"/>
@@ -2652,7 +3352,7 @@
       <c r="N30" s="37"/>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="31" spans="1:16" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="19"/>
@@ -2669,7 +3369,7 @@
       <c r="N31" s="37"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:15" ht="17.5">
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="19"/>
@@ -2684,7 +3384,7 @@
       <c r="L32" s="16"/>
       <c r="M32" s="21"/>
     </row>
-    <row r="33" spans="1:13" ht="17.5">
+    <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="19"/>
@@ -2699,7 +3399,7 @@
       <c r="L33" s="16"/>
       <c r="M33" s="25"/>
     </row>
-    <row r="34" spans="1:13" ht="17.5">
+    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="19"/>
@@ -2714,7 +3414,7 @@
       <c r="L34" s="16"/>
       <c r="M34" s="25"/>
     </row>
-    <row r="35" spans="1:13" ht="114.5" customHeight="1">
+    <row r="35" spans="1:13" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="22"/>
@@ -2729,7 +3429,7 @@
       <c r="L35" s="24"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" ht="119" customHeight="1">
+    <row r="36" spans="1:13" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="22"/>
@@ -2744,7 +3444,7 @@
       <c r="L36" s="24"/>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:13" ht="169.5" customHeight="1">
+    <row r="37" spans="1:13" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="27"/>
@@ -2759,7 +3459,7 @@
       <c r="L37" s="16"/>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:13" ht="17.5">
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="19"/>
@@ -2774,7 +3474,7 @@
       <c r="L38" s="16"/>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="1:13" ht="17.5">
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="22"/>
@@ -2789,7 +3489,7 @@
       <c r="L39" s="16"/>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="1:13" ht="17.5">
+    <row r="40" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="22"/>
@@ -2804,7 +3504,7 @@
       <c r="L40" s="16"/>
       <c r="M40" s="18"/>
     </row>
-    <row r="41" spans="1:13" ht="17.5">
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="22"/>
@@ -2819,7 +3519,7 @@
       <c r="L41" s="16"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:13" ht="105" customHeight="1">
+    <row r="42" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="22"/>
@@ -2834,7 +3534,7 @@
       <c r="L42" s="16"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="1:13" ht="17.5">
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="19"/>
@@ -2849,7 +3549,7 @@
       <c r="L43" s="16"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:13" ht="116.5" customHeight="1">
+    <row r="44" spans="1:13" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="19"/>
@@ -2864,7 +3564,7 @@
       <c r="L44" s="16"/>
       <c r="M44" s="18"/>
     </row>
-    <row r="45" spans="1:13" ht="17.5">
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="19"/>
@@ -2879,7 +3579,7 @@
       <c r="L45" s="16"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="1:13" ht="17.5">
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="19"/>
@@ -2894,7 +3594,7 @@
       <c r="L46" s="16"/>
       <c r="M46" s="18"/>
     </row>
-    <row r="47" spans="1:13" ht="17.5">
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="19"/>
@@ -2909,7 +3609,7 @@
       <c r="L47" s="16"/>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="117.5" customHeight="1">
+    <row r="48" spans="1:13" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="19"/>
@@ -2924,7 +3624,7 @@
       <c r="L48" s="16"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="17.5">
+    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="19"/>
@@ -2939,7 +3639,7 @@
       <c r="L49" s="16"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="50" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="19"/>
@@ -2956,7 +3656,7 @@
       <c r="N50" s="37"/>
       <c r="O50" s="12"/>
     </row>
-    <row r="51" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="51" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="19"/>
@@ -2973,7 +3673,7 @@
       <c r="N51" s="37"/>
       <c r="O51" s="12"/>
     </row>
-    <row r="52" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="52" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="19"/>
@@ -2990,7 +3690,7 @@
       <c r="N52" s="37"/>
       <c r="O52" s="12"/>
     </row>
-    <row r="53" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="53" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="19"/>
@@ -3007,7 +3707,7 @@
       <c r="N53" s="37"/>
       <c r="O53" s="12"/>
     </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1">
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="19"/>
@@ -3024,7 +3724,7 @@
       <c r="N54" s="37"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1">
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="19"/>
@@ -3041,7 +3741,7 @@
       <c r="N55" s="37"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1">
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="19"/>
@@ -3058,7 +3758,7 @@
       <c r="N56" s="37"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1">
+    <row r="57" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="22"/>
@@ -3075,7 +3775,7 @@
       <c r="N57" s="37"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1">
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="22"/>
@@ -3092,7 +3792,7 @@
       <c r="N58" s="37"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1">
+    <row r="59" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="22"/>
@@ -3109,7 +3809,7 @@
       <c r="N59" s="37"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1">
+    <row r="60" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="22"/>
@@ -3126,7 +3826,7 @@
       <c r="N60" s="37"/>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1">
+    <row r="61" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="22"/>
@@ -3143,7 +3843,7 @@
       <c r="N61" s="37"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1">
+    <row r="62" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="22"/>
@@ -3160,7 +3860,7 @@
       <c r="N62" s="37"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1">
+    <row r="63" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="22"/>
@@ -3177,7 +3877,7 @@
       <c r="N63" s="37"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1">
+    <row r="64" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="22"/>
@@ -3194,7 +3894,7 @@
       <c r="N64" s="37"/>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1">
+    <row r="65" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="22"/>
@@ -3211,7 +3911,7 @@
       <c r="N65" s="37"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1">
+    <row r="66" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="22"/>
@@ -3228,7 +3928,7 @@
       <c r="N66" s="37"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="67" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="22"/>
@@ -3245,7 +3945,7 @@
       <c r="N67" s="37"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="68" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="22"/>
@@ -3262,7 +3962,7 @@
       <c r="N68" s="37"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1">
+    <row r="69" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="22"/>
@@ -3279,7 +3979,7 @@
       <c r="N69" s="37"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1">
+    <row r="70" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="22"/>
@@ -3296,7 +3996,7 @@
       <c r="N70" s="37"/>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="71" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="22"/>
@@ -3313,7 +4013,7 @@
       <c r="N71" s="37"/>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="72" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="22"/>
@@ -3330,7 +4030,7 @@
       <c r="N72" s="37"/>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="73" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="22"/>
@@ -3347,7 +4047,7 @@
       <c r="N73" s="37"/>
       <c r="O73" s="12"/>
     </row>
-    <row r="74" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="74" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="22"/>
@@ -3364,7 +4064,7 @@
       <c r="N74" s="37"/>
       <c r="O74" s="12"/>
     </row>
-    <row r="75" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="75" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="22"/>
@@ -3381,7 +4081,7 @@
       <c r="N75" s="37"/>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="76" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="19"/>
@@ -3398,7 +4098,7 @@
       <c r="N76" s="37"/>
       <c r="O76" s="12"/>
     </row>
-    <row r="77" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="77" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="19"/>
@@ -3415,7 +4115,7 @@
       <c r="N77" s="37"/>
       <c r="O77" s="12"/>
     </row>
-    <row r="78" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="78" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="19"/>
@@ -3432,7 +4132,7 @@
       <c r="N78" s="37"/>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1">
+    <row r="79" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="19"/>
@@ -3449,7 +4149,7 @@
       <c r="N79" s="37"/>
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="80" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="19"/>
@@ -3466,7 +4166,7 @@
       <c r="N80" s="37"/>
       <c r="O80" s="12"/>
     </row>
-    <row r="81" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="81" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="19"/>
@@ -3483,7 +4183,7 @@
       <c r="N81" s="37"/>
       <c r="O81" s="12"/>
     </row>
-    <row r="82" spans="1:15" ht="17.5">
+    <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="19"/>
@@ -3498,7 +4198,7 @@
       <c r="L82" s="16"/>
       <c r="M82" s="18"/>
     </row>
-    <row r="83" spans="1:15" ht="158.5" customHeight="1">
+    <row r="83" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="19"/>
@@ -3513,7 +4213,7 @@
       <c r="L83" s="16"/>
       <c r="M83" s="18"/>
     </row>
-    <row r="84" spans="1:15" ht="17.5">
+    <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="19"/>
@@ -3528,7 +4228,7 @@
       <c r="L84" s="16"/>
       <c r="M84" s="21"/>
     </row>
-    <row r="85" spans="1:15" ht="91.75" customHeight="1">
+    <row r="85" spans="1:15" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="19"/>
@@ -3543,7 +4243,7 @@
       <c r="L85" s="16"/>
       <c r="M85" s="21"/>
     </row>
-    <row r="86" spans="1:15" ht="165" customHeight="1">
+    <row r="86" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="19"/>
@@ -3558,7 +4258,7 @@
       <c r="L86" s="28"/>
       <c r="M86" s="29"/>
     </row>
-    <row r="87" spans="1:15" ht="108" customHeight="1">
+    <row r="87" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="19"/>
@@ -3573,7 +4273,7 @@
       <c r="L87" s="16"/>
       <c r="M87" s="25"/>
     </row>
-    <row r="88" spans="1:15" ht="101" customHeight="1">
+    <row r="88" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="19"/>
@@ -3588,7 +4288,7 @@
       <c r="L88" s="16"/>
       <c r="M88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="88" customHeight="1">
+    <row r="89" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="22"/>
@@ -3603,7 +4303,7 @@
       <c r="L89" s="24"/>
       <c r="M89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="98" customHeight="1">
+    <row r="90" spans="1:15" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="22"/>
@@ -3618,7 +4318,7 @@
       <c r="L90" s="24"/>
       <c r="M90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="156" customHeight="1">
+    <row r="91" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="22"/>
@@ -3633,7 +4333,7 @@
       <c r="L91" s="16"/>
       <c r="M91" s="18"/>
     </row>
-    <row r="92" spans="1:15" ht="172.5" customHeight="1">
+    <row r="92" spans="1:15" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="22"/>
@@ -3648,7 +4348,7 @@
       <c r="L92" s="16"/>
       <c r="M92" s="18"/>
     </row>
-    <row r="93" spans="1:15" ht="79" customHeight="1">
+    <row r="93" spans="1:15" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="22"/>
@@ -3663,7 +4363,7 @@
       <c r="L93" s="16"/>
       <c r="M93" s="18"/>
     </row>
-    <row r="94" spans="1:15" ht="102.5" customHeight="1">
+    <row r="94" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="22"/>
@@ -3678,7 +4378,7 @@
       <c r="L94" s="16"/>
       <c r="M94" s="18"/>
     </row>
-    <row r="95" spans="1:15" ht="51" customHeight="1">
+    <row r="95" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="22"/>
@@ -3693,7 +4393,7 @@
       <c r="L95" s="16"/>
       <c r="M95" s="18"/>
     </row>
-    <row r="96" spans="1:15" ht="121.25" customHeight="1">
+    <row r="96" spans="1:15" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="22"/>
@@ -3708,7 +4408,7 @@
       <c r="L96" s="16"/>
       <c r="M96" s="18"/>
     </row>
-    <row r="97" spans="1:13" ht="49.5" customHeight="1">
+    <row r="97" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="22"/>
@@ -3723,7 +4423,7 @@
       <c r="L97" s="16"/>
       <c r="M97" s="18"/>
     </row>
-    <row r="98" spans="1:13" ht="56.4" customHeight="1">
+    <row r="98" spans="1:13" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="22"/>
@@ -3738,7 +4438,7 @@
       <c r="L98" s="16"/>
       <c r="M98" s="18"/>
     </row>
-    <row r="99" spans="1:13" ht="104" customHeight="1">
+    <row r="99" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="22"/>
@@ -3753,7 +4453,7 @@
       <c r="L99" s="16"/>
       <c r="M99" s="18"/>
     </row>
-    <row r="100" spans="1:13" ht="95.4" customHeight="1">
+    <row r="100" spans="1:13" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="22"/>
@@ -3768,7 +4468,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="1:13" ht="78" customHeight="1">
+    <row r="101" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="22"/>
@@ -3783,7 +4483,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="18"/>
     </row>
-    <row r="102" spans="1:13" ht="17.5">
+    <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="22"/>
@@ -3798,7 +4498,7 @@
       <c r="L102" s="16"/>
       <c r="M102" s="18"/>
     </row>
-    <row r="103" spans="1:13" ht="17.5">
+    <row r="103" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="22"/>
@@ -3813,7 +4513,7 @@
       <c r="L103" s="16"/>
       <c r="M103" s="18"/>
     </row>
-    <row r="104" spans="1:13" ht="17.5">
+    <row r="104" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="22"/>
@@ -3828,7 +4528,7 @@
       <c r="L104" s="16"/>
       <c r="M104" s="18"/>
     </row>
-    <row r="105" spans="1:13" ht="17.5">
+    <row r="105" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="22"/>
@@ -3843,7 +4543,7 @@
       <c r="L105" s="16"/>
       <c r="M105" s="18"/>
     </row>
-    <row r="106" spans="1:13" ht="17.5">
+    <row r="106" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="22"/>
@@ -3858,7 +4558,7 @@
       <c r="L106" s="16"/>
       <c r="M106" s="18"/>
     </row>
-    <row r="107" spans="1:13" ht="17.5">
+    <row r="107" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="22"/>
@@ -3873,7 +4573,7 @@
       <c r="L107" s="16"/>
       <c r="M107" s="18"/>
     </row>
-    <row r="108" spans="1:13" ht="17.5">
+    <row r="108" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="22"/>
@@ -3888,7 +4588,7 @@
       <c r="L108" s="16"/>
       <c r="M108" s="18"/>
     </row>
-    <row r="109" spans="1:13" ht="17.5">
+    <row r="109" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="22"/>
@@ -3903,7 +4603,7 @@
       <c r="L109" s="16"/>
       <c r="M109" s="18"/>
     </row>
-    <row r="110" spans="1:13" ht="108" customHeight="1">
+    <row r="110" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="22"/>
@@ -3918,7 +4618,7 @@
       <c r="L110" s="16"/>
       <c r="M110" s="18"/>
     </row>
-    <row r="111" spans="1:13" ht="17.5">
+    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="22"/>
@@ -3933,7 +4633,7 @@
       <c r="L111" s="16"/>
       <c r="M111" s="18"/>
     </row>
-    <row r="112" spans="1:13" ht="17.5">
+    <row r="112" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="22"/>
@@ -3948,7 +4648,7 @@
       <c r="L112" s="16"/>
       <c r="M112" s="18"/>
     </row>
-    <row r="113" spans="1:15" ht="70.75" customHeight="1">
+    <row r="113" spans="1:15" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="22"/>
@@ -3963,7 +4663,7 @@
       <c r="L113" s="16"/>
       <c r="M113" s="18"/>
     </row>
-    <row r="114" spans="1:15" ht="17.5">
+    <row r="114" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="22"/>
@@ -3978,7 +4678,7 @@
       <c r="L114" s="16"/>
       <c r="M114" s="18"/>
     </row>
-    <row r="115" spans="1:15" ht="17.5">
+    <row r="115" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="22"/>
@@ -3993,7 +4693,7 @@
       <c r="L115" s="16"/>
       <c r="M115" s="18"/>
     </row>
-    <row r="116" spans="1:15" ht="17.5">
+    <row r="116" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="22"/>
@@ -4008,7 +4708,7 @@
       <c r="L116" s="16"/>
       <c r="M116" s="18"/>
     </row>
-    <row r="117" spans="1:15" ht="17.5">
+    <row r="117" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="22"/>
@@ -4023,7 +4723,7 @@
       <c r="L117" s="16"/>
       <c r="M117" s="18"/>
     </row>
-    <row r="118" spans="1:15" ht="17.5">
+    <row r="118" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="22"/>
@@ -4038,7 +4738,7 @@
       <c r="L118" s="16"/>
       <c r="M118" s="18"/>
     </row>
-    <row r="119" spans="1:15" ht="17.5">
+    <row r="119" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="22"/>
@@ -4053,7 +4753,7 @@
       <c r="L119" s="16"/>
       <c r="M119" s="18"/>
     </row>
-    <row r="120" spans="1:15" ht="17.5">
+    <row r="120" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="19"/>
@@ -4068,7 +4768,7 @@
       <c r="L120" s="16"/>
       <c r="M120" s="25"/>
     </row>
-    <row r="121" spans="1:15" ht="17.5">
+    <row r="121" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="22"/>
@@ -4083,7 +4783,7 @@
       <c r="L121" s="24"/>
       <c r="M121" s="25"/>
     </row>
-    <row r="122" spans="1:15" ht="17.5">
+    <row r="122" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="22"/>
@@ -4098,7 +4798,7 @@
       <c r="L122" s="24"/>
       <c r="M122" s="25"/>
     </row>
-    <row r="123" spans="1:15" ht="17.5">
+    <row r="123" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="22"/>
@@ -4113,7 +4813,7 @@
       <c r="L123" s="24"/>
       <c r="M123" s="25"/>
     </row>
-    <row r="124" spans="1:15" ht="17.5">
+    <row r="124" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="22"/>
@@ -4128,7 +4828,7 @@
       <c r="L124" s="24"/>
       <c r="M124" s="25"/>
     </row>
-    <row r="125" spans="1:15" ht="17.5">
+    <row r="125" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="22"/>
@@ -4143,7 +4843,7 @@
       <c r="L125" s="24"/>
       <c r="M125" s="25"/>
     </row>
-    <row r="126" spans="1:15" ht="88" customHeight="1">
+    <row r="126" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="22"/>
@@ -4158,7 +4858,7 @@
       <c r="L126" s="24"/>
       <c r="M126" s="25"/>
     </row>
-    <row r="127" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="127" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="22"/>
@@ -4175,7 +4875,7 @@
       <c r="N127" s="37"/>
       <c r="O127" s="12"/>
     </row>
-    <row r="128" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="128" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="22"/>
@@ -4192,7 +4892,7 @@
       <c r="N128" s="37"/>
       <c r="O128" s="12"/>
     </row>
-    <row r="129" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="129" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="22"/>
@@ -4209,7 +4909,7 @@
       <c r="N129" s="37"/>
       <c r="O129" s="12"/>
     </row>
-    <row r="130" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="130" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="19"/>
@@ -4226,7 +4926,7 @@
       <c r="N130" s="37"/>
       <c r="O130" s="12"/>
     </row>
-    <row r="131" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="131" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="19"/>
@@ -4243,7 +4943,7 @@
       <c r="N131" s="37"/>
       <c r="O131" s="12"/>
     </row>
-    <row r="132" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="132" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="19"/>
@@ -4260,7 +4960,7 @@
       <c r="N132" s="37"/>
       <c r="O132" s="12"/>
     </row>
-    <row r="133" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="133" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="19"/>
@@ -4277,7 +4977,7 @@
       <c r="N133" s="37"/>
       <c r="O133" s="12"/>
     </row>
-    <row r="134" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="134" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="22"/>
@@ -4294,7 +4994,7 @@
       <c r="N134" s="37"/>
       <c r="O134" s="12"/>
     </row>
-    <row r="135" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="135" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="19"/>
@@ -4311,7 +5011,7 @@
       <c r="N135" s="37"/>
       <c r="O135" s="12"/>
     </row>
-    <row r="136" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="136" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="27"/>
@@ -4328,7 +5028,7 @@
       <c r="N136" s="37"/>
       <c r="O136" s="12"/>
     </row>
-    <row r="137" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="137" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="19"/>
@@ -4345,7 +5045,7 @@
       <c r="N137" s="37"/>
       <c r="O137" s="12"/>
     </row>
-    <row r="138" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="138" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="19"/>
@@ -4362,7 +5062,7 @@
       <c r="N138" s="37"/>
       <c r="O138" s="12"/>
     </row>
-    <row r="139" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="139" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="19"/>
@@ -4379,7 +5079,7 @@
       <c r="N139" s="37"/>
       <c r="O139" s="12"/>
     </row>
-    <row r="140" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="140" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="19"/>
@@ -4396,7 +5096,7 @@
       <c r="N140" s="37"/>
       <c r="O140" s="12"/>
     </row>
-    <row r="141" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="141" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="19"/>
@@ -4413,7 +5113,7 @@
       <c r="N141" s="37"/>
       <c r="O141" s="12"/>
     </row>
-    <row r="142" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="142" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="19"/>
@@ -4430,7 +5130,7 @@
       <c r="N142" s="37"/>
       <c r="O142" s="12"/>
     </row>
-    <row r="143" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1">
+    <row r="143" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="19"/>
@@ -4447,7 +5147,7 @@
       <c r="N143" s="37"/>
       <c r="O143" s="12"/>
     </row>
-    <row r="144" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="144" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="19"/>
@@ -4464,7 +5164,7 @@
       <c r="N144" s="37"/>
       <c r="O144" s="12"/>
     </row>
-    <row r="145" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1">
+    <row r="145" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="19"/>
@@ -4481,7 +5181,7 @@
       <c r="N145" s="37"/>
       <c r="O145" s="12"/>
     </row>
-    <row r="146" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="146" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="19"/>
@@ -4498,7 +5198,7 @@
       <c r="N146" s="37"/>
       <c r="O146" s="12"/>
     </row>
-    <row r="147" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="147" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="19"/>
@@ -4515,7 +5215,7 @@
       <c r="N147" s="37"/>
       <c r="O147" s="12"/>
     </row>
-    <row r="148" spans="1:15" s="11" customFormat="1" ht="132.65" customHeight="1">
+    <row r="148" spans="1:15" s="11" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="19"/>
@@ -4532,7 +5232,7 @@
       <c r="N148" s="37"/>
       <c r="O148" s="12"/>
     </row>
-    <row r="149" spans="1:15" s="11" customFormat="1" ht="120.65" customHeight="1">
+    <row r="149" spans="1:15" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="19"/>
@@ -4549,7 +5249,7 @@
       <c r="N149" s="37"/>
       <c r="O149" s="12"/>
     </row>
-    <row r="150" spans="1:15" s="11" customFormat="1" ht="17.5">
+    <row r="150" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="19"/>
@@ -4566,7 +5266,7 @@
       <c r="N150" s="37"/>
       <c r="O150" s="12"/>
     </row>
-    <row r="151" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1">
+    <row r="151" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="19"/>
@@ -4583,7 +5283,7 @@
       <c r="N151" s="37"/>
       <c r="O151" s="12"/>
     </row>
-    <row r="152" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1">
+    <row r="152" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="19"/>
@@ -4600,7 +5300,7 @@
       <c r="N152" s="37"/>
       <c r="O152" s="12"/>
     </row>
-    <row r="153" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1">
+    <row r="153" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="22"/>
@@ -4617,7 +5317,7 @@
       <c r="N153" s="37"/>
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1">
+    <row r="154" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="22"/>
@@ -4634,7 +5334,7 @@
       <c r="N154" s="37"/>
       <c r="O154" s="12"/>
     </row>
-    <row r="155" spans="1:15" s="11" customFormat="1" ht="63.65" customHeight="1">
+    <row r="155" spans="1:15" s="11" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="22"/>
@@ -4651,7 +5351,7 @@
       <c r="N155" s="37"/>
       <c r="O155" s="12"/>
     </row>
-    <row r="156" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1">
+    <row r="156" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="22"/>
@@ -4668,7 +5368,7 @@
       <c r="N156" s="37"/>
       <c r="O156" s="12"/>
     </row>
-    <row r="157" spans="1:15" ht="45.65" customHeight="1">
+    <row r="157" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="22"/>
@@ -4683,7 +5383,7 @@
       <c r="L157" s="20"/>
       <c r="M157" s="21"/>
     </row>
-    <row r="158" spans="1:15" ht="82.75" customHeight="1">
+    <row r="158" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="22"/>
@@ -4698,7 +5398,7 @@
       <c r="L158" s="20"/>
       <c r="M158" s="21"/>
     </row>
-    <row r="159" spans="1:15" ht="17.5">
+    <row r="159" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="19"/>
@@ -4713,7 +5413,7 @@
       <c r="L159" s="20"/>
       <c r="M159" s="21"/>
     </row>
-    <row r="160" spans="1:15" ht="100.25" customHeight="1">
+    <row r="160" spans="1:15" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="19"/>
@@ -4728,7 +5428,7 @@
       <c r="L160" s="20"/>
       <c r="M160" s="21"/>
     </row>
-    <row r="161" spans="1:15" ht="103.25" customHeight="1">
+    <row r="161" spans="1:15" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="19"/>
@@ -4743,7 +5443,7 @@
       <c r="L161" s="20"/>
       <c r="M161" s="21"/>
     </row>
-    <row r="162" spans="1:15" ht="89.4" customHeight="1">
+    <row r="162" spans="1:15" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="22"/>
@@ -4758,7 +5458,7 @@
       <c r="L162" s="16"/>
       <c r="M162" s="18"/>
     </row>
-    <row r="163" spans="1:15" ht="77.400000000000006" customHeight="1">
+    <row r="163" spans="1:15" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="22"/>
@@ -4773,7 +5473,7 @@
       <c r="L163" s="16"/>
       <c r="M163" s="18"/>
     </row>
-    <row r="164" spans="1:15" ht="73.25" customHeight="1">
+    <row r="164" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="14"/>
@@ -4790,7 +5490,7 @@
       <c r="N164" s="38"/>
       <c r="O164" s="32"/>
     </row>
-    <row r="165" spans="1:15" ht="102.5" customHeight="1">
+    <row r="165" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="14"/>
@@ -4807,7 +5507,7 @@
       <c r="N165" s="38"/>
       <c r="O165" s="32"/>
     </row>
-    <row r="166" spans="1:15" ht="73.25" customHeight="1">
+    <row r="166" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="14"/>
@@ -4822,7 +5522,7 @@
       <c r="L166" s="16"/>
       <c r="M166" s="18"/>
     </row>
-    <row r="167" spans="1:15" ht="67.75" customHeight="1">
+    <row r="167" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="19"/>
@@ -4839,7 +5539,7 @@
       <c r="N167" s="38"/>
       <c r="O167" s="32"/>
     </row>
-    <row r="168" spans="1:15" ht="71.400000000000006" customHeight="1">
+    <row r="168" spans="1:15" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="19"/>
@@ -4856,7 +5556,7 @@
       <c r="N168" s="38"/>
       <c r="O168" s="32"/>
     </row>
-    <row r="169" spans="1:15" ht="69.650000000000006" customHeight="1">
+    <row r="169" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="19"/>
@@ -4873,7 +5573,7 @@
       <c r="N169" s="38"/>
       <c r="O169" s="32"/>
     </row>
-    <row r="170" spans="1:15" ht="43.25" customHeight="1">
+    <row r="170" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="19"/>
@@ -4890,7 +5590,7 @@
       <c r="N170" s="38"/>
       <c r="O170" s="32"/>
     </row>
-    <row r="171" spans="1:15" ht="53.4" customHeight="1">
+    <row r="171" spans="1:15" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="19"/>
@@ -4907,7 +5607,7 @@
       <c r="N171" s="39"/>
       <c r="O171" s="32"/>
     </row>
-    <row r="172" spans="1:15" ht="79.25" customHeight="1">
+    <row r="172" spans="1:15" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="19"/>
@@ -4924,7 +5624,7 @@
       <c r="N172" s="39"/>
       <c r="O172" s="32"/>
     </row>
-    <row r="173" spans="1:15" ht="120.65" customHeight="1">
+    <row r="173" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="19"/>
@@ -4941,7 +5641,7 @@
       <c r="N173" s="39"/>
       <c r="O173" s="32"/>
     </row>
-    <row r="174" spans="1:15" ht="94.75" customHeight="1">
+    <row r="174" spans="1:15" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="22"/>
@@ -4956,7 +5656,7 @@
       <c r="L174" s="16"/>
       <c r="M174" s="18"/>
     </row>
-    <row r="175" spans="1:15" ht="67.75" customHeight="1">
+    <row r="175" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="22"/>
@@ -4971,7 +5671,7 @@
       <c r="L175" s="16"/>
       <c r="M175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="17.5">
+    <row r="176" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="22"/>
@@ -4986,7 +5686,7 @@
       <c r="L176" s="16"/>
       <c r="M176" s="18"/>
     </row>
-    <row r="177" spans="1:13" ht="17.5">
+    <row r="177" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="22"/>
@@ -5001,7 +5701,7 @@
       <c r="L177" s="16"/>
       <c r="M177" s="18"/>
     </row>
-    <row r="178" spans="1:13" ht="17.5">
+    <row r="178" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="22"/>
@@ -5016,7 +5716,7 @@
       <c r="L178" s="16"/>
       <c r="M178" s="18"/>
     </row>
-    <row r="179" spans="1:13" ht="17.5">
+    <row r="179" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="22"/>
@@ -5031,7 +5731,7 @@
       <c r="L179" s="16"/>
       <c r="M179" s="18"/>
     </row>
-    <row r="180" spans="1:13" ht="17.5">
+    <row r="180" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="22"/>
@@ -5050,37 +5750,41 @@
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H2:H19" r:id="rId1" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId2" display="https://user-center-thu.tunaikita.id/user/job"/>
     <hyperlink ref="H3:H26" r:id="rId3" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H8" r:id="rId4"/>
-    <hyperlink ref="H9" r:id="rId5"/>
-    <hyperlink ref="H10:H11" r:id="rId6" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H12:H13" r:id="rId7" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H14:H15" r:id="rId8" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H10" r:id="rId9"/>
-    <hyperlink ref="H12" r:id="rId10"/>
-    <hyperlink ref="H14" r:id="rId11"/>
-    <hyperlink ref="H11" r:id="rId12"/>
-    <hyperlink ref="H13" r:id="rId13"/>
-    <hyperlink ref="H15" r:id="rId14"/>
-    <hyperlink ref="H16" r:id="rId15"/>
-    <hyperlink ref="H17:H25" r:id="rId16" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H17" r:id="rId17"/>
-    <hyperlink ref="H18" r:id="rId18"/>
-    <hyperlink ref="H19:H20" r:id="rId19" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H21:H22" r:id="rId20" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H23:H24" r:id="rId21" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H19" r:id="rId22"/>
-    <hyperlink ref="H21" r:id="rId23"/>
-    <hyperlink ref="H23" r:id="rId24"/>
-    <hyperlink ref="H20" r:id="rId25"/>
-    <hyperlink ref="H22" r:id="rId26"/>
-    <hyperlink ref="H24" r:id="rId27"/>
-    <hyperlink ref="H25" r:id="rId28"/>
-    <hyperlink ref="H26" r:id="rId29" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H9" r:id="rId4"/>
+    <hyperlink ref="H10" r:id="rId5"/>
+    <hyperlink ref="H11:H12" r:id="rId6" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H13:H14" r:id="rId7" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H15:H16" r:id="rId8" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H11" r:id="rId9"/>
+    <hyperlink ref="H13" r:id="rId10"/>
+    <hyperlink ref="H15" r:id="rId11"/>
+    <hyperlink ref="H12" r:id="rId12"/>
+    <hyperlink ref="H14" r:id="rId13"/>
+    <hyperlink ref="H16" r:id="rId14"/>
+    <hyperlink ref="H17:H25" r:id="rId15" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H17" r:id="rId16"/>
+    <hyperlink ref="H18" r:id="rId17"/>
+    <hyperlink ref="H19:H20" r:id="rId18" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H21:H22" r:id="rId19" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H23:H24" r:id="rId20" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H19" r:id="rId21"/>
+    <hyperlink ref="H21" r:id="rId22"/>
+    <hyperlink ref="H23" r:id="rId23"/>
+    <hyperlink ref="H20" r:id="rId24"/>
+    <hyperlink ref="H22" r:id="rId25"/>
+    <hyperlink ref="H24" r:id="rId26"/>
+    <hyperlink ref="H25" r:id="rId27"/>
+    <hyperlink ref="H3" r:id="rId28"/>
+    <hyperlink ref="H5" r:id="rId29"/>
+    <hyperlink ref="H6" r:id="rId30"/>
+    <hyperlink ref="H7" r:id="rId31"/>
+    <hyperlink ref="H8" r:id="rId32"/>
+    <hyperlink ref="H4" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
-  <legacyDrawing r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/JobPut/Case_JobPut.xlsx
+++ b/src/main/resources/caseconf/JobPut/Case_JobPut.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjianjie/Documents/work/Git/Data_Center_Platform/src/main/resources/caseconf/JobPut/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangjianjie/Documents/work/Git/Auto_test/Data_Center_Platform/src/main/resources/caseconf/JobPut/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-9040" yWindow="-28340" windowWidth="51200" windowHeight="28340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="JobPut" sheetId="2" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="137">
   <si>
     <t>lable</t>
     <phoneticPr fontId="8" type="noConversion"/>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>提交职业信息成功</t>
-  </si>
-  <si>
-    <t>修改职业信息成功</t>
   </si>
   <si>
     <t>{
@@ -259,9 +256,6 @@
     <t>JobPut-002</t>
   </si>
   <si>
-    <t>JobPut-003</t>
-  </si>
-  <si>
     <t>JobPut-004</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
   </si>
   <si>
     <t>JobPut-025</t>
-  </si>
-  <si>
-    <t>JobPut-026</t>
   </si>
   <si>
     <t>{
@@ -1692,6 +1683,108 @@
   </si>
   <si>
     <t>JobPut-008</t>
+  </si>
+  <si>
+    <t>2级</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改职业信息成功-修改所有字段</t>
+    <rPh sb="9" eb="10">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>suo'you</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>zi'duan</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改职业信息成功-修改字段传空</t>
+    <rPh sb="9" eb="10">
+      <t>xiu'gai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>zi'duan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>chuan</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobPut-003</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>JobPut-016</t>
+  </si>
+  <si>
+    <t>JobPut-017</t>
+  </si>
+  <si>
+    <t>{
+ "tenantId": "1001", 
+ "tenantUserId": "111111",
+ "industry": "",
+ "occupation": "",
+ "company": "",
+ "job": "",
+ "companyCity": "", 
+ "companyAddress": "",
+ "companyPhone": "",
+ "companyEmail": "",
+ "monthlySalary": 10000.00
+}</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into `seraph`.`user_basic_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `status`, `secret_key`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', '1', 'ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVickk4a2pqc2ZCYkFSRExBVmhwa0VQclNXQUhkVnAyVUdBQUFBQUFBQUFBQUNacURacno0T3pENzJtWVRsdUF3cjJKNjNMcDhoVXpENjhKSHo2UEpCODduM2RSczdYUnh2M2pYb2Q0LzR1OGVBOS9uWFRZNU1NYWpOTW9rOXlYbFM0blMyNVM1NFhibnJMMlo1aU1PYW1paGovQnhTNklnbEJvNWNtNUlxRzlLTzgzdXc5dmRiTm4xbE9Jdk9vUmlhQzMvMkcyTWJOZXJOVFl1WDdzZ2l4UWdLZnlHM3czb2oxMnFXR1JiQjBQQlFXZll4SUZDbE5NZkZBRW1OeG5McUNTSVV5dVg3YjI0RU4vVmFiMDhzY1lWRk83Q0kreXlRREJsVjV5NnVGOEt3MG83RjNYb1BvSWdDUzUxbVIvWXEyeSsrQzdCNW5ZMXBSSDhjSHZ0UVhkS3FuZlQ4SW1aeGNCcG1NdGRvQ2p2WWVzVjVFcmxyc3B1M21SSHAxbHJzSXpMbTk1a3FsSGE0QnozTTNhdFUzSFRwZmhoemV1eHRiNTRTSmJjUXQ3MFhVZjV1VklRQTZNY3VTVmVsejJ0YXd0SVZjck9BN2R1STBNRFdDV3V5MDNYUnp1TFFPczlhQS9QUHlwMTJBdlUyNnNHOWxlUnUwVlRUWXhzb3RHSC9VdkFlOE5ZaTkxUT0=', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'name', '王*', 'S1vS3hPCjrE=', 'ac28fbca8a573dacf8566df97ba36e89', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'mobileNo', '189****9090', 'ZjrvanU8xynmJOgqaepUtA==', '545a3ef0c83ca84b3e18cf85c7187d94', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'certNo', '1311**********0909', 'K6wr0kS9Qucy33B+h1v+9129YYhbcehY', 'bbff5c1bc79a9d858b441b8abf54d911', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'email', 'wang***@163.com', 'd8IyCJSIGb91nHFBm7G4aQ==', 'dce6158df0eb228b3148467232b1dcf6', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_index` ( `user_id`, `tenant_id`, `tenant_user_id`, `mobile_no`, `cert_no`, `mobile_no_cert_no`, `cert_no_mobile_no`, `cert_no_name`, `name_cert_no`, `mobile_no_name`, `name_mobile_no`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'dca7ac134311d1a7699db2f9d2189350', '9b0658065bae368092d0c75b029f73b2', '27aa7acffc1d7b896f1df246f4cac8fa', '3c2d65e816e5101af47ea06c00dc7750', '4f121e32315573d04be47f23b4c7236f', 'a07e4a85fd185bc8983462c533ecdabf', '0d3a23d2debb04c422a3f7e257dd85e6', 'ff8756693f7f89fdd3aa838c94bef790', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_job` ( `user_id`, `tenant_id`, `tenant_user_id`, `industry`, `occupation`, `job`, `company`, `company_city`, `company_address`, `company_phone`, `company_email`, `monthly_salary`, `create_time`, `update_time`, `yn`) values ( '710887744879529984', '1001', '111111', '软件', '测试', '软件测试', '闪银', '北京', '朝阳', '006200002220079', 'wang@gmail.com', '40000000.00', '2020-04-17 13:52:38', '2020-04-17 13:52:38', '0');</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "tenant_id":"1001",
+    "tenant_user_id":"111111",
+    "industry":"软件",
+    "occupation":"测试",
+    "job":"软件测试",
+    "company":"闪银",
+    "company_city":"北京",
+    "company_address":"朝阳",
+    "company_phone":"006200002220079",
+    "company_email":"wang@gmail.com",
+    "monthly_salary":"10000.00",
+    "yn":0,
+    "user_id":"710887744879529984"
+}</t>
+    <rPh sb="96" eb="97">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="112" eb="113">
+      <t>ruan'jian</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ce's</t>
+    </rPh>
+    <rPh sb="159" eb="160">
+      <t>bei'jing</t>
+    </rPh>
+    <rPh sb="187" eb="188">
+      <t>chao'yang</t>
+    </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2301,13 +2394,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P180"/>
+  <dimension ref="A1:P181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A26:XFD26"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2371,18 +2464,18 @@
         <v>12</v>
       </c>
       <c r="N1" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O1" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="372.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>14</v>
@@ -2390,415 +2483,416 @@
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I2" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J2" s="45"/>
       <c r="K2" s="46" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L2" s="45"/>
       <c r="M2" s="46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N2" s="49" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O2" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="305.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>129</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="50">
         <v>1</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="O3" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="305.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="50">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="I4" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="M4" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="N4" s="35"/>
-      <c r="O4" s="40"/>
+        <v>134</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
+        <v>30</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>123</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I5" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>52</v>
+        <v>124</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>125</v>
       </c>
       <c r="N5" s="35"/>
       <c r="O5" s="40"/>
     </row>
-    <row r="6" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="10" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="46" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M6" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="41"/>
-    </row>
-    <row r="7" spans="1:15" ht="270" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="N6" s="35"/>
+      <c r="O6" s="40"/>
+    </row>
+    <row r="7" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="10" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I7" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="M7" s="47" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="41"/>
     </row>
-    <row r="8" spans="1:15" ht="285" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I8" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="46" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M8" s="47" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="N8" s="34"/>
       <c r="O8" s="41"/>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" ht="281.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="285" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>83</v>
-      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I9" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="45"/>
+        <v>63</v>
+      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="N9" s="49" t="s">
-        <v>93</v>
-      </c>
-      <c r="O9" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="41"/>
+    </row>
+    <row r="10" spans="1:15" s="11" customFormat="1" ht="281.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I10" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J10" s="45"/>
       <c r="K10" s="46" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L10" s="45"/>
       <c r="M10" s="46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O10" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I11" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J11" s="45"/>
       <c r="K11" s="46" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="L11" s="45"/>
       <c r="M11" s="46" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="O11" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="289" customHeight="1" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="246" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="46" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="L12" s="45"/>
       <c r="M12" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="49" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="O12" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="11" customFormat="1" ht="289" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I13" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J13" s="45"/>
       <c r="K13" s="46" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L13" s="45"/>
       <c r="M13" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N13" s="49" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="O13" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
@@ -2806,38 +2900,38 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I14" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J14" s="45"/>
       <c r="K14" s="46" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L14" s="45"/>
       <c r="M14" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="O14" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
@@ -2845,38 +2939,38 @@
         <v>13</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I15" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J15" s="45"/>
       <c r="K15" s="46" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L15" s="45"/>
       <c r="M15" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N15" s="49" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="O15" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
@@ -2884,38 +2978,38 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="I16" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J16" s="45"/>
       <c r="K16" s="46" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="L16" s="45"/>
       <c r="M16" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N16" s="49" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="O16" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
@@ -2923,156 +3017,156 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>57</v>
+        <v>132</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I17" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J17" s="45"/>
       <c r="K17" s="46" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="L17" s="45"/>
       <c r="M17" s="46" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N17" s="49" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O17" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="P17" s="48"/>
+        <v>65</v>
+      </c>
     </row>
     <row r="18" spans="1:16" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>43</v>
+        <v>133</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I18" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J18" s="45"/>
       <c r="K18" s="46" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="L18" s="45"/>
       <c r="M18" s="46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N18" s="49" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="O18" s="48" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P18" s="48"/>
     </row>
     <row r="19" spans="1:16" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="I19" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J19" s="45"/>
       <c r="K19" s="46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L19" s="45"/>
       <c r="M19" s="46" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="N19" s="49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O19" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="409" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="11" customFormat="1" ht="409" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I20" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J20" s="45"/>
       <c r="K20" s="46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L20" s="45"/>
       <c r="M20" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N20" s="49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O20" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="409" x14ac:dyDescent="0.2">
@@ -3080,38 +3174,38 @@
         <v>13</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I21" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J21" s="45"/>
       <c r="K21" s="46" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L21" s="45"/>
       <c r="M21" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N21" s="49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O21" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="409" x14ac:dyDescent="0.2">
@@ -3119,38 +3213,38 @@
         <v>13</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I22" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J22" s="45"/>
       <c r="K22" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L22" s="45"/>
       <c r="M22" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N22" s="49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O22" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="409" x14ac:dyDescent="0.2">
@@ -3158,38 +3252,38 @@
         <v>13</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I23" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J23" s="45"/>
       <c r="K23" s="46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L23" s="45"/>
       <c r="M23" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23" s="49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O23" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="409" x14ac:dyDescent="0.2">
@@ -3197,38 +3291,38 @@
         <v>13</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I24" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J24" s="45"/>
       <c r="K24" s="46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L24" s="45"/>
       <c r="M24" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N24" s="49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O24" s="48" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="409" x14ac:dyDescent="0.2">
@@ -3236,72 +3330,96 @@
         <v>13</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="19" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="I25" s="45" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L25" s="45"/>
       <c r="M25" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N25" s="49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O25" s="48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="167" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="47"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="409" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="45"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="47"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="48"/>
-    </row>
-    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+      <c r="F26" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="N26" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="O26" s="48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="167" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="15"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
       <c r="H27" s="10"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="18"/>
-    </row>
-    <row r="28" spans="1:16" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="I27" s="45"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="47"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="48"/>
+    </row>
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="19"/>
@@ -3315,8 +3433,6 @@
       <c r="K28" s="18"/>
       <c r="L28" s="16"/>
       <c r="M28" s="18"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="12"/>
     </row>
     <row r="29" spans="1:16" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
@@ -3348,7 +3464,7 @@
       <c r="J30" s="26"/>
       <c r="K30" s="18"/>
       <c r="L30" s="16"/>
-      <c r="M30" s="21"/>
+      <c r="M30" s="18"/>
       <c r="N30" s="37"/>
       <c r="O30" s="12"/>
     </row>
@@ -3369,7 +3485,7 @@
       <c r="N31" s="37"/>
       <c r="O31" s="12"/>
     </row>
-    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="19"/>
@@ -3383,6 +3499,8 @@
       <c r="K32" s="18"/>
       <c r="L32" s="16"/>
       <c r="M32" s="21"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="12"/>
     </row>
     <row r="33" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
@@ -3397,7 +3515,7 @@
       <c r="J33" s="26"/>
       <c r="K33" s="18"/>
       <c r="L33" s="16"/>
-      <c r="M33" s="25"/>
+      <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
@@ -3414,22 +3532,22 @@
       <c r="L34" s="16"/>
       <c r="M34" s="25"/>
     </row>
-    <row r="35" spans="1:13" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="22"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="15"/>
       <c r="H35" s="10"/>
       <c r="I35" s="17"/>
       <c r="J35" s="26"/>
       <c r="K35" s="18"/>
-      <c r="L35" s="24"/>
+      <c r="L35" s="16"/>
       <c r="M35" s="25"/>
     </row>
-    <row r="36" spans="1:13" ht="119" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="114.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="22"/>
@@ -3444,25 +3562,25 @@
       <c r="L36" s="24"/>
       <c r="M36" s="25"/>
     </row>
-    <row r="37" spans="1:13" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="15"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="10"/>
       <c r="I37" s="17"/>
       <c r="J37" s="26"/>
       <c r="K37" s="18"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="18"/>
-    </row>
-    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="L37" s="24"/>
+      <c r="M37" s="25"/>
+    </row>
+    <row r="38" spans="1:13" ht="169.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="19"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="43"/>
@@ -3477,11 +3595,11 @@
     <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="22"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="15"/>
       <c r="H39" s="10"/>
       <c r="I39" s="17"/>
       <c r="J39" s="26"/>
@@ -3519,7 +3637,7 @@
       <c r="L41" s="16"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="22"/>
@@ -3534,14 +3652,14 @@
       <c r="L42" s="16"/>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="15"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="22"/>
       <c r="H43" s="10"/>
       <c r="I43" s="17"/>
       <c r="J43" s="26"/>
@@ -3549,7 +3667,7 @@
       <c r="L43" s="16"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:13" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="19"/>
@@ -3564,7 +3682,7 @@
       <c r="L44" s="16"/>
       <c r="M44" s="18"/>
     </row>
-    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="19"/>
@@ -3609,7 +3727,7 @@
       <c r="L47" s="16"/>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="1:13" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="19"/>
@@ -3624,7 +3742,7 @@
       <c r="L48" s="16"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="117.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="19"/>
@@ -3639,7 +3757,7 @@
       <c r="L49" s="16"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="19"/>
@@ -3653,8 +3771,6 @@
       <c r="K50" s="18"/>
       <c r="L50" s="16"/>
       <c r="M50" s="18"/>
-      <c r="N50" s="37"/>
-      <c r="O50" s="12"/>
     </row>
     <row r="51" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
@@ -3701,13 +3817,13 @@
       <c r="H53" s="10"/>
       <c r="I53" s="17"/>
       <c r="J53" s="26"/>
-      <c r="K53" s="21"/>
+      <c r="K53" s="18"/>
       <c r="L53" s="16"/>
       <c r="M53" s="18"/>
       <c r="N53" s="37"/>
       <c r="O53" s="12"/>
     </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="19"/>
@@ -3718,13 +3834,13 @@
       <c r="H54" s="10"/>
       <c r="I54" s="17"/>
       <c r="J54" s="26"/>
-      <c r="K54" s="18"/>
+      <c r="K54" s="21"/>
       <c r="L54" s="16"/>
       <c r="M54" s="18"/>
       <c r="N54" s="37"/>
       <c r="O54" s="12"/>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="125" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="19"/>
@@ -3737,11 +3853,11 @@
       <c r="J55" s="26"/>
       <c r="K55" s="18"/>
       <c r="L55" s="16"/>
-      <c r="M55" s="25"/>
+      <c r="M55" s="18"/>
       <c r="N55" s="37"/>
       <c r="O55" s="12"/>
     </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="19"/>
@@ -3758,24 +3874,24 @@
       <c r="N56" s="37"/>
       <c r="O56" s="12"/>
     </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" s="11" customFormat="1" ht="110.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="44"/>
-      <c r="G57" s="22"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="10"/>
       <c r="I57" s="17"/>
       <c r="J57" s="26"/>
       <c r="K57" s="18"/>
-      <c r="L57" s="24"/>
+      <c r="L57" s="16"/>
       <c r="M57" s="25"/>
       <c r="N57" s="37"/>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="131" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="22"/>
@@ -3792,24 +3908,24 @@
       <c r="N58" s="37"/>
       <c r="O58" s="12"/>
     </row>
-    <row r="59" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="11" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="22"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="43"/>
-      <c r="G59" s="15"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="22"/>
       <c r="H59" s="10"/>
       <c r="I59" s="17"/>
       <c r="J59" s="26"/>
       <c r="K59" s="18"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="18"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="25"/>
       <c r="N59" s="37"/>
       <c r="O59" s="12"/>
     </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" s="11" customFormat="1" ht="118.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="22"/>
@@ -3826,7 +3942,7 @@
       <c r="N60" s="37"/>
       <c r="O60" s="12"/>
     </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" s="11" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="22"/>
@@ -3843,7 +3959,7 @@
       <c r="N61" s="37"/>
       <c r="O61" s="12"/>
     </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" s="11" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="22"/>
@@ -3860,24 +3976,24 @@
       <c r="N62" s="37"/>
       <c r="O62" s="12"/>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" s="11" customFormat="1" ht="191.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="22"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="28"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="15"/>
       <c r="H63" s="10"/>
       <c r="I63" s="17"/>
       <c r="J63" s="26"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="29"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="18"/>
       <c r="N63" s="37"/>
       <c r="O63" s="12"/>
     </row>
-    <row r="64" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" s="11" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="22"/>
@@ -3894,7 +4010,7 @@
       <c r="N64" s="37"/>
       <c r="O64" s="12"/>
     </row>
-    <row r="65" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" s="11" customFormat="1" ht="96.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="22"/>
@@ -3911,7 +4027,7 @@
       <c r="N65" s="37"/>
       <c r="O65" s="12"/>
     </row>
-    <row r="66" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" s="11" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="22"/>
@@ -3928,7 +4044,7 @@
       <c r="N66" s="37"/>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" s="11" customFormat="1" ht="156.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="22"/>
@@ -3945,7 +4061,7 @@
       <c r="N67" s="37"/>
       <c r="O67" s="12"/>
     </row>
-    <row r="68" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="22"/>
@@ -3962,7 +4078,7 @@
       <c r="N68" s="37"/>
       <c r="O68" s="12"/>
     </row>
-    <row r="69" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="22"/>
@@ -3979,7 +4095,7 @@
       <c r="N69" s="37"/>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" s="11" customFormat="1" ht="161.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="22"/>
@@ -3996,7 +4112,7 @@
       <c r="N70" s="37"/>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" s="11" customFormat="1" ht="154.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="22"/>
@@ -4068,23 +4184,23 @@
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="22"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="43"/>
-      <c r="G75" s="15"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="28"/>
       <c r="H75" s="10"/>
       <c r="I75" s="17"/>
       <c r="J75" s="26"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="16"/>
-      <c r="M75" s="18"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="28"/>
+      <c r="M75" s="29"/>
       <c r="N75" s="37"/>
       <c r="O75" s="12"/>
     </row>
     <row r="76" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
-      <c r="C76" s="19"/>
+      <c r="C76" s="22"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
       <c r="F76" s="43"/>
@@ -4111,7 +4227,7 @@
       <c r="J77" s="26"/>
       <c r="K77" s="18"/>
       <c r="L77" s="16"/>
-      <c r="M77" s="21"/>
+      <c r="M77" s="18"/>
       <c r="N77" s="37"/>
       <c r="O77" s="12"/>
     </row>
@@ -4132,7 +4248,7 @@
       <c r="N78" s="37"/>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="19"/>
@@ -4149,7 +4265,7 @@
       <c r="N79" s="37"/>
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" s="11" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="19"/>
@@ -4179,11 +4295,11 @@
       <c r="J81" s="26"/>
       <c r="K81" s="18"/>
       <c r="L81" s="16"/>
-      <c r="M81" s="18"/>
+      <c r="M81" s="21"/>
       <c r="N81" s="37"/>
       <c r="O81" s="12"/>
     </row>
-    <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="19"/>
@@ -4197,8 +4313,10 @@
       <c r="K82" s="18"/>
       <c r="L82" s="16"/>
       <c r="M82" s="18"/>
-    </row>
-    <row r="83" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N82" s="37"/>
+      <c r="O82" s="12"/>
+    </row>
+    <row r="83" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="19"/>
@@ -4213,7 +4331,7 @@
       <c r="L83" s="16"/>
       <c r="M83" s="18"/>
     </row>
-    <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="158.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="19"/>
@@ -4226,9 +4344,9 @@
       <c r="J84" s="26"/>
       <c r="K84" s="18"/>
       <c r="L84" s="16"/>
-      <c r="M84" s="21"/>
-    </row>
-    <row r="85" spans="1:15" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M84" s="18"/>
+    </row>
+    <row r="85" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="19"/>
@@ -4243,7 +4361,7 @@
       <c r="L85" s="16"/>
       <c r="M85" s="21"/>
     </row>
-    <row r="86" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="91.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="19"/>
@@ -4255,10 +4373,10 @@
       <c r="I86" s="17"/>
       <c r="J86" s="26"/>
       <c r="K86" s="18"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="29"/>
-    </row>
-    <row r="87" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L86" s="16"/>
+      <c r="M86" s="21"/>
+    </row>
+    <row r="87" spans="1:15" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="19"/>
@@ -4270,10 +4388,10 @@
       <c r="I87" s="17"/>
       <c r="J87" s="26"/>
       <c r="K87" s="18"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="25"/>
-    </row>
-    <row r="88" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L87" s="28"/>
+      <c r="M87" s="29"/>
+    </row>
+    <row r="88" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="19"/>
@@ -4288,22 +4406,22 @@
       <c r="L88" s="16"/>
       <c r="M88" s="25"/>
     </row>
-    <row r="89" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="101" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="22"/>
-      <c r="F89" s="44"/>
-      <c r="G89" s="22"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="15"/>
       <c r="H89" s="10"/>
       <c r="I89" s="17"/>
       <c r="J89" s="26"/>
       <c r="K89" s="18"/>
-      <c r="L89" s="24"/>
+      <c r="L89" s="16"/>
       <c r="M89" s="25"/>
     </row>
-    <row r="90" spans="1:15" ht="98" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="22"/>
@@ -4318,22 +4436,22 @@
       <c r="L90" s="24"/>
       <c r="M90" s="25"/>
     </row>
-    <row r="91" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="98" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="22"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="43"/>
-      <c r="G91" s="15"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="22"/>
       <c r="H91" s="10"/>
       <c r="I91" s="17"/>
       <c r="J91" s="26"/>
       <c r="K91" s="18"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="18"/>
-    </row>
-    <row r="92" spans="1:15" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L91" s="24"/>
+      <c r="M91" s="25"/>
+    </row>
+    <row r="92" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="22"/>
@@ -4348,7 +4466,7 @@
       <c r="L92" s="16"/>
       <c r="M92" s="18"/>
     </row>
-    <row r="93" spans="1:15" ht="79" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="22"/>
@@ -4363,7 +4481,7 @@
       <c r="L93" s="16"/>
       <c r="M93" s="18"/>
     </row>
-    <row r="94" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="79" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="22"/>
@@ -4378,7 +4496,7 @@
       <c r="L94" s="16"/>
       <c r="M94" s="18"/>
     </row>
-    <row r="95" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="22"/>
@@ -4393,7 +4511,7 @@
       <c r="L95" s="16"/>
       <c r="M95" s="18"/>
     </row>
-    <row r="96" spans="1:15" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="22"/>
@@ -4408,7 +4526,7 @@
       <c r="L96" s="16"/>
       <c r="M96" s="18"/>
     </row>
-    <row r="97" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="22"/>
@@ -4423,7 +4541,7 @@
       <c r="L97" s="16"/>
       <c r="M97" s="18"/>
     </row>
-    <row r="98" spans="1:13" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="22"/>
@@ -4438,7 +4556,7 @@
       <c r="L98" s="16"/>
       <c r="M98" s="18"/>
     </row>
-    <row r="99" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" ht="56.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="22"/>
@@ -4453,7 +4571,7 @@
       <c r="L99" s="16"/>
       <c r="M99" s="18"/>
     </row>
-    <row r="100" spans="1:13" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" ht="104" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="22"/>
@@ -4468,7 +4586,7 @@
       <c r="L100" s="16"/>
       <c r="M100" s="18"/>
     </row>
-    <row r="101" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" ht="95.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="22"/>
@@ -4483,7 +4601,7 @@
       <c r="L101" s="16"/>
       <c r="M101" s="18"/>
     </row>
-    <row r="102" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="22"/>
@@ -4603,7 +4721,7 @@
       <c r="L109" s="16"/>
       <c r="M109" s="18"/>
     </row>
-    <row r="110" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="22"/>
@@ -4618,7 +4736,7 @@
       <c r="L110" s="16"/>
       <c r="M110" s="18"/>
     </row>
-    <row r="111" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="22"/>
@@ -4648,7 +4766,7 @@
       <c r="L112" s="16"/>
       <c r="M112" s="18"/>
     </row>
-    <row r="113" spans="1:15" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="22"/>
@@ -4663,7 +4781,7 @@
       <c r="L113" s="16"/>
       <c r="M113" s="18"/>
     </row>
-    <row r="114" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="70.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="22"/>
@@ -4682,10 +4800,10 @@
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="22"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="29"/>
-      <c r="G115" s="28"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="43"/>
+      <c r="G115" s="15"/>
       <c r="H115" s="10"/>
       <c r="I115" s="17"/>
       <c r="J115" s="26"/>
@@ -4734,7 +4852,7 @@
       <c r="H118" s="10"/>
       <c r="I118" s="17"/>
       <c r="J118" s="26"/>
-      <c r="K118" s="21"/>
+      <c r="K118" s="18"/>
       <c r="L118" s="16"/>
       <c r="M118" s="18"/>
     </row>
@@ -4742,21 +4860,21 @@
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="22"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="43"/>
-      <c r="G119" s="15"/>
+      <c r="D119" s="28"/>
+      <c r="E119" s="28"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="28"/>
       <c r="H119" s="10"/>
       <c r="I119" s="17"/>
       <c r="J119" s="26"/>
-      <c r="K119" s="18"/>
+      <c r="K119" s="21"/>
       <c r="L119" s="16"/>
       <c r="M119" s="18"/>
     </row>
     <row r="120" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
-      <c r="C120" s="19"/>
+      <c r="C120" s="22"/>
       <c r="D120" s="15"/>
       <c r="E120" s="15"/>
       <c r="F120" s="43"/>
@@ -4766,21 +4884,21 @@
       <c r="J120" s="26"/>
       <c r="K120" s="18"/>
       <c r="L120" s="16"/>
-      <c r="M120" s="25"/>
+      <c r="M120" s="18"/>
     </row>
     <row r="121" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="22"/>
-      <c r="F121" s="44"/>
-      <c r="G121" s="22"/>
+      <c r="C121" s="19"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="43"/>
+      <c r="G121" s="15"/>
       <c r="H121" s="10"/>
       <c r="I121" s="17"/>
       <c r="J121" s="26"/>
       <c r="K121" s="18"/>
-      <c r="L121" s="24"/>
+      <c r="L121" s="16"/>
       <c r="M121" s="25"/>
     </row>
     <row r="122" spans="1:15" ht="18" x14ac:dyDescent="0.2">
@@ -4843,7 +4961,7 @@
       <c r="L125" s="24"/>
       <c r="M125" s="25"/>
     </row>
-    <row r="126" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="22"/>
@@ -4858,7 +4976,7 @@
       <c r="L126" s="24"/>
       <c r="M126" s="25"/>
     </row>
-    <row r="127" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="88" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="22"/>
@@ -4872,8 +4990,6 @@
       <c r="K127" s="18"/>
       <c r="L127" s="24"/>
       <c r="M127" s="25"/>
-      <c r="N127" s="37"/>
-      <c r="O127" s="12"/>
     </row>
     <row r="128" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A128" s="6"/>
@@ -4912,17 +5028,17 @@
     <row r="130" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
-      <c r="C130" s="19"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="43"/>
-      <c r="G130" s="15"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="22"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="22"/>
       <c r="H130" s="10"/>
       <c r="I130" s="17"/>
       <c r="J130" s="26"/>
       <c r="K130" s="18"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="18"/>
+      <c r="L130" s="24"/>
+      <c r="M130" s="25"/>
       <c r="N130" s="37"/>
       <c r="O130" s="12"/>
     </row>
@@ -4956,7 +5072,7 @@
       <c r="J132" s="26"/>
       <c r="K132" s="18"/>
       <c r="L132" s="16"/>
-      <c r="M132" s="25"/>
+      <c r="M132" s="18"/>
       <c r="N132" s="37"/>
       <c r="O132" s="12"/>
     </row>
@@ -4980,16 +5096,16 @@
     <row r="134" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
-      <c r="C134" s="22"/>
-      <c r="D134" s="23"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="44"/>
-      <c r="G134" s="22"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="43"/>
+      <c r="G134" s="15"/>
       <c r="H134" s="10"/>
       <c r="I134" s="17"/>
       <c r="J134" s="26"/>
       <c r="K134" s="18"/>
-      <c r="L134" s="24"/>
+      <c r="L134" s="16"/>
       <c r="M134" s="25"/>
       <c r="N134" s="37"/>
       <c r="O134" s="12"/>
@@ -4997,41 +5113,41 @@
     <row r="135" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="19"/>
-      <c r="G135" s="14"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="22"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="22"/>
       <c r="H135" s="10"/>
       <c r="I135" s="17"/>
       <c r="J135" s="26"/>
       <c r="K135" s="18"/>
-      <c r="L135" s="20"/>
-      <c r="M135" s="21"/>
+      <c r="L135" s="24"/>
+      <c r="M135" s="25"/>
       <c r="N135" s="37"/>
       <c r="O135" s="12"/>
     </row>
     <row r="136" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
-      <c r="C136" s="27"/>
+      <c r="C136" s="19"/>
       <c r="D136" s="14"/>
       <c r="E136" s="14"/>
       <c r="F136" s="19"/>
       <c r="G136" s="14"/>
       <c r="H136" s="10"/>
-      <c r="I136" s="15"/>
+      <c r="I136" s="17"/>
       <c r="J136" s="26"/>
       <c r="K136" s="18"/>
-      <c r="L136" s="16"/>
-      <c r="M136" s="18"/>
+      <c r="L136" s="20"/>
+      <c r="M136" s="21"/>
       <c r="N136" s="37"/>
       <c r="O136" s="12"/>
     </row>
     <row r="137" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
-      <c r="C137" s="19"/>
+      <c r="C137" s="27"/>
       <c r="D137" s="14"/>
       <c r="E137" s="14"/>
       <c r="F137" s="19"/>
@@ -5130,7 +5246,7 @@
       <c r="N142" s="37"/>
       <c r="O142" s="12"/>
     </row>
-    <row r="143" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="19"/>
@@ -5147,7 +5263,7 @@
       <c r="N143" s="37"/>
       <c r="O143" s="12"/>
     </row>
-    <row r="144" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" s="11" customFormat="1" ht="145.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="19"/>
@@ -5164,7 +5280,7 @@
       <c r="N144" s="37"/>
       <c r="O144" s="12"/>
     </row>
-    <row r="145" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="19"/>
@@ -5181,7 +5297,7 @@
       <c r="N145" s="37"/>
       <c r="O145" s="12"/>
     </row>
-    <row r="146" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" s="11" customFormat="1" ht="112.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="19"/>
@@ -5215,7 +5331,7 @@
       <c r="N147" s="37"/>
       <c r="O147" s="12"/>
     </row>
-    <row r="148" spans="1:15" s="11" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="19"/>
@@ -5226,13 +5342,13 @@
       <c r="H148" s="10"/>
       <c r="I148" s="15"/>
       <c r="J148" s="26"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="20"/>
-      <c r="M148" s="21"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="16"/>
+      <c r="M148" s="18"/>
       <c r="N148" s="37"/>
       <c r="O148" s="12"/>
     </row>
-    <row r="149" spans="1:15" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" s="11" customFormat="1" ht="132.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="19"/>
@@ -5243,13 +5359,13 @@
       <c r="H149" s="10"/>
       <c r="I149" s="15"/>
       <c r="J149" s="26"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="16"/>
-      <c r="M149" s="18"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="20"/>
+      <c r="M149" s="21"/>
       <c r="N149" s="37"/>
       <c r="O149" s="12"/>
     </row>
-    <row r="150" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" s="11" customFormat="1" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="19"/>
@@ -5260,13 +5376,13 @@
       <c r="H150" s="10"/>
       <c r="I150" s="15"/>
       <c r="J150" s="26"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="21"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="16"/>
+      <c r="M150" s="18"/>
       <c r="N150" s="37"/>
       <c r="O150" s="12"/>
     </row>
-    <row r="151" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" s="11" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="19"/>
@@ -5278,12 +5394,12 @@
       <c r="I151" s="15"/>
       <c r="J151" s="26"/>
       <c r="K151" s="21"/>
-      <c r="L151" s="16"/>
-      <c r="M151" s="25"/>
+      <c r="L151" s="20"/>
+      <c r="M151" s="21"/>
       <c r="N151" s="37"/>
       <c r="O151" s="12"/>
     </row>
-    <row r="152" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" s="11" customFormat="1" ht="121.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="19"/>
@@ -5294,16 +5410,16 @@
       <c r="H152" s="10"/>
       <c r="I152" s="15"/>
       <c r="J152" s="26"/>
-      <c r="K152" s="18"/>
+      <c r="K152" s="21"/>
       <c r="L152" s="16"/>
       <c r="M152" s="25"/>
       <c r="N152" s="37"/>
       <c r="O152" s="12"/>
     </row>
-    <row r="153" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" s="11" customFormat="1" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
-      <c r="C153" s="22"/>
+      <c r="C153" s="19"/>
       <c r="D153" s="14"/>
       <c r="E153" s="14"/>
       <c r="F153" s="19"/>
@@ -5312,12 +5428,12 @@
       <c r="I153" s="15"/>
       <c r="J153" s="26"/>
       <c r="K153" s="18"/>
-      <c r="L153" s="24"/>
+      <c r="L153" s="16"/>
       <c r="M153" s="25"/>
       <c r="N153" s="37"/>
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" s="11" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="22"/>
@@ -5334,7 +5450,7 @@
       <c r="N154" s="37"/>
       <c r="O154" s="12"/>
     </row>
-    <row r="155" spans="1:15" s="11" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" s="11" customFormat="1" ht="91.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="22"/>
@@ -5346,12 +5462,12 @@
       <c r="I155" s="15"/>
       <c r="J155" s="26"/>
       <c r="K155" s="18"/>
-      <c r="L155" s="16"/>
-      <c r="M155" s="18"/>
+      <c r="L155" s="24"/>
+      <c r="M155" s="25"/>
       <c r="N155" s="37"/>
       <c r="O155" s="12"/>
     </row>
-    <row r="156" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" s="11" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="22"/>
@@ -5362,13 +5478,13 @@
       <c r="H156" s="10"/>
       <c r="I156" s="15"/>
       <c r="J156" s="26"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="21"/>
+      <c r="K156" s="18"/>
+      <c r="L156" s="16"/>
+      <c r="M156" s="18"/>
       <c r="N156" s="37"/>
       <c r="O156" s="12"/>
     </row>
-    <row r="157" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" s="11" customFormat="1" ht="79.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="22"/>
@@ -5382,8 +5498,10 @@
       <c r="K157" s="21"/>
       <c r="L157" s="20"/>
       <c r="M157" s="21"/>
-    </row>
-    <row r="158" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N157" s="37"/>
+      <c r="O157" s="12"/>
+    </row>
+    <row r="158" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="22"/>
@@ -5398,10 +5516,10 @@
       <c r="L158" s="20"/>
       <c r="M158" s="21"/>
     </row>
-    <row r="159" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="82.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
-      <c r="C159" s="19"/>
+      <c r="C159" s="22"/>
       <c r="D159" s="14"/>
       <c r="E159" s="14"/>
       <c r="F159" s="19"/>
@@ -5413,7 +5531,7 @@
       <c r="L159" s="20"/>
       <c r="M159" s="21"/>
     </row>
-    <row r="160" spans="1:15" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="19"/>
@@ -5428,7 +5546,7 @@
       <c r="L160" s="20"/>
       <c r="M160" s="21"/>
     </row>
-    <row r="161" spans="1:15" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="19"/>
@@ -5443,22 +5561,22 @@
       <c r="L161" s="20"/>
       <c r="M161" s="21"/>
     </row>
-    <row r="162" spans="1:15" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="103.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
-      <c r="C162" s="22"/>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="43"/>
-      <c r="G162" s="15"/>
+      <c r="C162" s="19"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="19"/>
+      <c r="G162" s="14"/>
       <c r="H162" s="10"/>
       <c r="I162" s="15"/>
       <c r="J162" s="26"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="16"/>
-      <c r="M162" s="18"/>
-    </row>
-    <row r="163" spans="1:15" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K162" s="21"/>
+      <c r="L162" s="20"/>
+      <c r="M162" s="21"/>
+    </row>
+    <row r="163" spans="1:15" ht="89.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="22"/>
@@ -5473,10 +5591,10 @@
       <c r="L163" s="16"/>
       <c r="M163" s="18"/>
     </row>
-    <row r="164" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="77.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
-      <c r="C164" s="14"/>
+      <c r="C164" s="22"/>
       <c r="D164" s="15"/>
       <c r="E164" s="15"/>
       <c r="F164" s="43"/>
@@ -5487,10 +5605,8 @@
       <c r="K164" s="18"/>
       <c r="L164" s="16"/>
       <c r="M164" s="18"/>
-      <c r="N164" s="38"/>
-      <c r="O164" s="32"/>
-    </row>
-    <row r="165" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="14"/>
@@ -5507,7 +5623,7 @@
       <c r="N165" s="38"/>
       <c r="O165" s="32"/>
     </row>
-    <row r="166" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="102.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="14"/>
@@ -5521,11 +5637,13 @@
       <c r="K166" s="18"/>
       <c r="L166" s="16"/>
       <c r="M166" s="18"/>
-    </row>
-    <row r="167" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N166" s="38"/>
+      <c r="O166" s="32"/>
+    </row>
+    <row r="167" spans="1:15" ht="73.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
-      <c r="C167" s="19"/>
+      <c r="C167" s="14"/>
       <c r="D167" s="15"/>
       <c r="E167" s="15"/>
       <c r="F167" s="43"/>
@@ -5536,10 +5654,8 @@
       <c r="K167" s="18"/>
       <c r="L167" s="16"/>
       <c r="M167" s="18"/>
-      <c r="N167" s="38"/>
-      <c r="O167" s="32"/>
-    </row>
-    <row r="168" spans="1:15" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="19"/>
@@ -5550,13 +5666,13 @@
       <c r="H168" s="10"/>
       <c r="I168" s="15"/>
       <c r="J168" s="26"/>
-      <c r="K168" s="21"/>
+      <c r="K168" s="18"/>
       <c r="L168" s="16"/>
-      <c r="M168" s="30"/>
+      <c r="M168" s="18"/>
       <c r="N168" s="38"/>
       <c r="O168" s="32"/>
     </row>
-    <row r="169" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="71.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="19"/>
@@ -5567,13 +5683,13 @@
       <c r="H169" s="10"/>
       <c r="I169" s="15"/>
       <c r="J169" s="26"/>
-      <c r="K169" s="18"/>
+      <c r="K169" s="21"/>
       <c r="L169" s="16"/>
-      <c r="M169" s="18"/>
+      <c r="M169" s="30"/>
       <c r="N169" s="38"/>
       <c r="O169" s="32"/>
     </row>
-    <row r="170" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="19"/>
@@ -5584,13 +5700,13 @@
       <c r="H170" s="10"/>
       <c r="I170" s="15"/>
       <c r="J170" s="26"/>
-      <c r="K170" s="31"/>
+      <c r="K170" s="18"/>
       <c r="L170" s="16"/>
       <c r="M170" s="18"/>
       <c r="N170" s="38"/>
       <c r="O170" s="32"/>
     </row>
-    <row r="171" spans="1:15" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="19"/>
@@ -5601,13 +5717,13 @@
       <c r="H171" s="10"/>
       <c r="I171" s="15"/>
       <c r="J171" s="26"/>
-      <c r="K171" s="18"/>
+      <c r="K171" s="31"/>
       <c r="L171" s="16"/>
-      <c r="M171" s="21"/>
-      <c r="N171" s="39"/>
+      <c r="M171" s="18"/>
+      <c r="N171" s="38"/>
       <c r="O171" s="32"/>
     </row>
-    <row r="172" spans="1:15" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="19"/>
@@ -5624,7 +5740,7 @@
       <c r="N172" s="39"/>
       <c r="O172" s="32"/>
     </row>
-    <row r="173" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="19"/>
@@ -5635,16 +5751,16 @@
       <c r="H173" s="10"/>
       <c r="I173" s="15"/>
       <c r="J173" s="26"/>
-      <c r="K173" s="21"/>
+      <c r="K173" s="18"/>
       <c r="L173" s="16"/>
-      <c r="M173" s="18"/>
+      <c r="M173" s="21"/>
       <c r="N173" s="39"/>
       <c r="O173" s="32"/>
     </row>
-    <row r="174" spans="1:15" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
-      <c r="C174" s="22"/>
+      <c r="C174" s="19"/>
       <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="43"/>
@@ -5652,11 +5768,13 @@
       <c r="H174" s="10"/>
       <c r="I174" s="15"/>
       <c r="J174" s="26"/>
-      <c r="K174" s="18"/>
+      <c r="K174" s="21"/>
       <c r="L174" s="16"/>
       <c r="M174" s="18"/>
-    </row>
-    <row r="175" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N174" s="39"/>
+      <c r="O174" s="32"/>
+    </row>
+    <row r="175" spans="1:15" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="22"/>
@@ -5671,7 +5789,7 @@
       <c r="L175" s="16"/>
       <c r="M175" s="18"/>
     </row>
-    <row r="176" spans="1:15" ht="18" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="67.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="22"/>
@@ -5746,45 +5864,61 @@
       <c r="L180" s="16"/>
       <c r="M180" s="18"/>
     </row>
+    <row r="181" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="A181" s="6"/>
+      <c r="B181" s="7"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="43"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="26"/>
+      <c r="K181" s="18"/>
+      <c r="L181" s="16"/>
+      <c r="M181" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2:H19" r:id="rId1" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H2:H20" r:id="rId1" display="https://user-center-thu.tunaikita.id/grant"/>
     <hyperlink ref="H2" r:id="rId2" display="https://user-center-thu.tunaikita.id/user/job"/>
-    <hyperlink ref="H3:H26" r:id="rId3" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H9" r:id="rId4"/>
-    <hyperlink ref="H10" r:id="rId5"/>
-    <hyperlink ref="H11:H12" r:id="rId6" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H13:H14" r:id="rId7" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H15:H16" r:id="rId8" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H11" r:id="rId9"/>
-    <hyperlink ref="H13" r:id="rId10"/>
-    <hyperlink ref="H15" r:id="rId11"/>
-    <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H14" r:id="rId13"/>
-    <hyperlink ref="H16" r:id="rId14"/>
-    <hyperlink ref="H17:H25" r:id="rId15" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H17" r:id="rId16"/>
-    <hyperlink ref="H18" r:id="rId17"/>
-    <hyperlink ref="H19:H20" r:id="rId18" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H21:H22" r:id="rId19" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H23:H24" r:id="rId20" display="https://user-center-thu.tunaikita.id/grant"/>
-    <hyperlink ref="H19" r:id="rId21"/>
-    <hyperlink ref="H21" r:id="rId22"/>
-    <hyperlink ref="H23" r:id="rId23"/>
-    <hyperlink ref="H20" r:id="rId24"/>
-    <hyperlink ref="H22" r:id="rId25"/>
-    <hyperlink ref="H24" r:id="rId26"/>
-    <hyperlink ref="H25" r:id="rId27"/>
+    <hyperlink ref="H3:H27" r:id="rId3" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H10" r:id="rId4"/>
+    <hyperlink ref="H11" r:id="rId5"/>
+    <hyperlink ref="H12:H13" r:id="rId6" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H14:H15" r:id="rId7" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H16:H17" r:id="rId8" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H12" r:id="rId9"/>
+    <hyperlink ref="H14" r:id="rId10"/>
+    <hyperlink ref="H16" r:id="rId11"/>
+    <hyperlink ref="H13" r:id="rId12"/>
+    <hyperlink ref="H15" r:id="rId13"/>
+    <hyperlink ref="H17" r:id="rId14"/>
+    <hyperlink ref="H18:H26" r:id="rId15" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H18" r:id="rId16"/>
+    <hyperlink ref="H19" r:id="rId17"/>
+    <hyperlink ref="H20:H21" r:id="rId18" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H22:H23" r:id="rId19" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H24:H25" r:id="rId20" display="https://user-center-thu.tunaikita.id/grant"/>
+    <hyperlink ref="H20" r:id="rId21"/>
+    <hyperlink ref="H22" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H21" r:id="rId24"/>
+    <hyperlink ref="H23" r:id="rId25"/>
+    <hyperlink ref="H25" r:id="rId26"/>
+    <hyperlink ref="H26" r:id="rId27"/>
     <hyperlink ref="H3" r:id="rId28"/>
-    <hyperlink ref="H5" r:id="rId29"/>
-    <hyperlink ref="H6" r:id="rId30"/>
-    <hyperlink ref="H7" r:id="rId31"/>
-    <hyperlink ref="H8" r:id="rId32"/>
-    <hyperlink ref="H4" r:id="rId33"/>
+    <hyperlink ref="H6" r:id="rId29"/>
+    <hyperlink ref="H7" r:id="rId30"/>
+    <hyperlink ref="H8" r:id="rId31"/>
+    <hyperlink ref="H9" r:id="rId32"/>
+    <hyperlink ref="H5" r:id="rId33"/>
+    <hyperlink ref="H4" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
-  <legacyDrawing r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <legacyDrawing r:id="rId36"/>
 </worksheet>
 </file>
--- a/src/main/resources/caseconf/JobPut/Case_JobPut.xlsx
+++ b/src/main/resources/caseconf/JobPut/Case_JobPut.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="JobPut" sheetId="2" r:id="rId1"/>
@@ -1744,16 +1744,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>insert into `seraph`.`user_basic_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `status`, `secret_key`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', '1', 'ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVickk4a2pqc2ZCYkFSRExBVmhwa0VQclNXQUhkVnAyVUdBQUFBQUFBQUFBQUNacURacno0T3pENzJtWVRsdUF3cjJKNjNMcDhoVXpENjhKSHo2UEpCODduM2RSczdYUnh2M2pYb2Q0LzR1OGVBOS9uWFRZNU1NYWpOTW9rOXlYbFM0blMyNVM1NFhibnJMMlo1aU1PYW1paGovQnhTNklnbEJvNWNtNUlxRzlLTzgzdXc5dmRiTm4xbE9Jdk9vUmlhQzMvMkcyTWJOZXJOVFl1WDdzZ2l4UWdLZnlHM3czb2oxMnFXR1JiQjBQQlFXZll4SUZDbE5NZkZBRW1OeG5McUNTSVV5dVg3YjI0RU4vVmFiMDhzY1lWRk83Q0kreXlRREJsVjV5NnVGOEt3MG83RjNYb1BvSWdDUzUxbVIvWXEyeSsrQzdCNW5ZMXBSSDhjSHZ0UVhkS3FuZlQ4SW1aeGNCcG1NdGRvQ2p2WWVzVjVFcmxyc3B1M21SSHAxbHJzSXpMbTk1a3FsSGE0QnozTTNhdFUzSFRwZmhoemV1eHRiNTRTSmJjUXQ3MFhVZjV1VklRQTZNY3VTVmVsejJ0YXd0SVZjck9BN2R1STBNRFdDV3V5MDNYUnp1TFFPczlhQS9QUHlwMTJBdlUyNnNHOWxlUnUwVlRUWXhzb3RHSC9VdkFlOE5ZaTkxUT0=', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'name', '王*', 'S1vS3hPCjrE=', 'ac28fbca8a573dacf8566df97ba36e89', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'mobileNo', '189****9090', 'ZjrvanU8xynmJOgqaepUtA==', '545a3ef0c83ca84b3e18cf85c7187d94', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'certNo', '1311**********0909', 'K6wr0kS9Qucy33B+h1v+9129YYhbcehY', 'bbff5c1bc79a9d858b441b8abf54d911', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'email', 'wang***@163.com', 'd8IyCJSIGb91nHFBm7G4aQ==', 'dce6158df0eb228b3148467232b1dcf6', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_index` ( `user_id`, `tenant_id`, `tenant_user_id`, `mobile_no`, `cert_no`, `mobile_no_cert_no`, `cert_no_mobile_no`, `cert_no_name`, `name_cert_no`, `mobile_no_name`, `name_mobile_no`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'dca7ac134311d1a7699db2f9d2189350', '9b0658065bae368092d0c75b029f73b2', '27aa7acffc1d7b896f1df246f4cac8fa', '3c2d65e816e5101af47ea06c00dc7750', '4f121e32315573d04be47f23b4c7236f', 'a07e4a85fd185bc8983462c533ecdabf', '0d3a23d2debb04c422a3f7e257dd85e6', 'ff8756693f7f89fdd3aa838c94bef790', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
-insert into `seraph`.`user_job` ( `user_id`, `tenant_id`, `tenant_user_id`, `industry`, `occupation`, `job`, `company`, `company_city`, `company_address`, `company_phone`, `company_email`, `monthly_salary`, `create_time`, `update_time`, `yn`) values ( '710887744879529984', '1001', '111111', '软件', '测试', '软件测试', '闪银', '北京', '朝阳', '006200002220079', 'wang@gmail.com', '40000000.00', '2020-04-17 13:52:38', '2020-04-17 13:52:38', '0');</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "tenant_id":"1001",
     "tenant_user_id":"111111",
@@ -1784,6 +1774,16 @@
     <rPh sb="187" eb="188">
       <t>chao'yang</t>
     </rPh>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert into `seraph`.`user_basic_info` ( `user_id`, `tenant_id`, `tenant_user_id`, `status`, `secret_key`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', '1', 'ZWMwYzAyMjUtY2VhMi00NGRiLWI3NzQtYTIxZjhhMTFlZTVickk4a2pqc2ZCYkFSRExBVmhwa0VQclNXQUhkVnAyVUdBQUFBQUFBQUFBQUNacURacno0T3pENzJtWVRsdUF3cjJKNjNMcDhoVXpENjhKSHo2UEpCODduM2RSczdYUnh2M2pYb2Q0LzR1OGVBOS9uWFRZNU1NYWpOTW9rOXlYbFM0blMyNVM1NFhibnJMMlo1aU1PYW1paGovQnhTNklnbEJvNWNtNUlxRzlLTzgzdXc5dmRiTm4xbE9Jdk9vUmlhQzMvMkcyTWJOZXJOVFl1WDdzZ2l4UWdLZnlHM3czb2oxMnFXR1JiQjBQQlFXZll4SUZDbE5NZkZBRW1OeG5McUNTSVV5dVg3YjI0RU4vVmFiMDhzY1lWRk83Q0kreXlRREJsVjV5NnVGOEt3MG83RjNYb1BvSWdDUzUxbVIvWXEyeSsrQzdCNW5ZMXBSSDhjSHZ0UVhkS3FuZlQ4SW1aeGNCcG1NdGRvQ2p2WWVzVjVFcmxyc3B1M21SSHAxbHJzSXpMbTk1a3FsSGE0QnozTTNhdFUzSFRwZmhoemV1eHRiNTRTSmJjUXQ3MFhVZjV1VklRQTZNY3VTVmVsejJ0YXd0SVZjck9BN2R1STBNRFdDV3V5MDNYUnp1TFFPczlhQS9QUHlwMTJBdlUyNnNHOWxlUnUwVlRUWXhzb3RHSC9VdkFlOE5ZaTkxUT0=', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'name', '王*', 'S1vS3hPCjrE=', 'ac28fbca8a573dacf8566df97ba36e89', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'mobileNo', '189****9090', 'ZjrvanU8xynmJOgqaepUtA==', '545a3ef0c83ca84b3e18cf85c7187d94', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'certNo', '1311**********0909', 'K6wr0kS9Qucy33B+h1v+9129YYhbcehY', 'bbff5c1bc79a9d858b441b8abf54d911', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_info_item` ( `user_id`, `tenant_id`, `tenant_user_id`, `key_name`, `key_value`, `value_en`, `value_md`, `version`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'email', 'wang***@163.com', 'd8IyCJSIGb91nHFBm7G4aQ==', 'dce6158df0eb228b3148467232b1dcf6', '0', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_index` ( `user_id`, `tenant_id`, `tenant_user_id`, `mobile_no`, `cert_no`, `mobile_no_cert_no`, `cert_no_mobile_no`, `cert_no_name`, `name_cert_no`, `mobile_no_name`, `name_mobile_no`, `create_time`, `update_time`) values ( '710887744879529984', '1001', '111111', 'dca7ac134311d1a7699db2f9d2189350', '9b0658065bae368092d0c75b029f73b2', '27aa7acffc1d7b896f1df246f4cac8fa', '3c2d65e816e5101af47ea06c00dc7750', '4f121e32315573d04be47f23b4c7236f', 'a07e4a85fd185bc8983462c533ecdabf', '0d3a23d2debb04c422a3f7e257dd85e6', 'ff8756693f7f89fdd3aa838c94bef790', '2020-05-15 16:14:06', '2020-05-15 16:14:06');
+insert into `seraph`.`user_job` ( `user_id`, `tenant_id`, `tenant_user_id`, `industry`, `occupation`, `job`, `company`, `company_city`, `company_address`, `company_phone`, `company_email`, `monthly_salary`, `create_time`, `update_time`, `yn`) values ( '710887744879529984', '1001', '111111', '软件', '测试', '软件测试', '闪银', '北京', '朝阳', '006200002220079', 'wang@gmail.com', '40000000.00', '2020-04-17 13:52:38', '2020-04-17 13:52:38', '0');</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2397,10 +2397,10 @@
   <dimension ref="A1:P181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2564,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>80</v>
@@ -2583,7 +2583,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O4" s="48" t="s">
         <v>65</v>
